--- a/data/hotels_by_city/Houston/Houston_shard_140.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_140.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="835">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108150-Reviews-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Hobby-Airport.h41725.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2443 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r592124516-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108150</t>
+  </si>
+  <si>
+    <t>592124516</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Quick stay, provided what we needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a quick overnight after landing at Hobby. Nice renovation in lobby, but rooms were a little worn. Quick freeway access to get to shopping and restaurants. Friendly front desk! Would stay again if it was a quick overnight </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r586425157-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586425157</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Renovation on the inside, But new policy of  paying to park just cost you my business </t>
+  </si>
+  <si>
+    <t>I have stayed at this property several times.  Enjoyed it every time.  In the past I would have definitely recommended it based on the Rooms are comfortable, location is good, and staff is friendly and professional. The hotel is doing some upgrades and room remodels..  I was given a newly renovated room which was nice.  But the hotel is apparently wanting the guests to pay for the upgrades, because I was told as of May 1 they now charge $10 a night to park. This has not been the case before, and being on a business travelers budget and expense, paying for parking when so many hotels on the same street still offer free parking is a deal breaker.... including their sister hotels Fairfield Inn which is just a few doors down, and also Springhill Suites, which is also less than a 1/4 mile away. The Hampton Inn still offers free parking.  The brand new holiday inn express across the street, free parking.  So Courtyard, it’s a bad move.  I am sad to say my business will go elsewhere to avoid parking fee’s.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lauren N, Director of Sales at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this property several times.  Enjoyed it every time.  In the past I would have definitely recommended it based on the Rooms are comfortable, location is good, and staff is friendly and professional. The hotel is doing some upgrades and room remodels..  I was given a newly renovated room which was nice.  But the hotel is apparently wanting the guests to pay for the upgrades, because I was told as of May 1 they now charge $10 a night to park. This has not been the case before, and being on a business travelers budget and expense, paying for parking when so many hotels on the same street still offer free parking is a deal breaker.... including their sister hotels Fairfield Inn which is just a few doors down, and also Springhill Suites, which is also less than a 1/4 mile away. The Hampton Inn still offers free parking.  The brand new holiday inn express across the street, free parking.  So Courtyard, it’s a bad move.  I am sad to say my business will go elsewhere to avoid parking fee’s.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r585866890-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585866890</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>This was my second time staying and this hotel is consistently terrific! Clean rooms and staff who go above and beyond to make you comfortable. I’m returning to Houston in March and will definitely be staying here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r574126988-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574126988</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Nice outside and in...but...</t>
+  </si>
+  <si>
+    <t>I stayed overnight in this hotel in southeast Houston for a business trip. It is near the airport and is easily accessible to the interstate. There are several fine restaurants nearby, as well. The hotel is nice outside and the staff at check-in were friendly and efficient. The hotel itself is a little run down, but appears to be undergoing renovation. My room was also nice. Comfortable bed and spacious room. However, the trip from the lobby to the room was shocking, to be honest. An odor in the elevator and along the length of the corridor on the third floor was a strange combination of chemical/rotting/floral. It was similar to how I might imagine a morgue to smell. Very distasteful and, well, shocking!But, as I said, the staff were great and the room was good. I just wish the journey to and from the room wasn’t so nauseating. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I stayed overnight in this hotel in southeast Houston for a business trip. It is near the airport and is easily accessible to the interstate. There are several fine restaurants nearby, as well. The hotel is nice outside and the staff at check-in were friendly and efficient. The hotel itself is a little run down, but appears to be undergoing renovation. My room was also nice. Comfortable bed and spacious room. However, the trip from the lobby to the room was shocking, to be honest. An odor in the elevator and along the length of the corridor on the third floor was a strange combination of chemical/rotting/floral. It was similar to how I might imagine a morgue to smell. Very distasteful and, well, shocking!But, as I said, the staff were great and the room was good. I just wish the journey to and from the room wasn’t so nauseating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r572863648-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572863648</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Houston Baseball trip</t>
+  </si>
+  <si>
+    <t>My son and I came to Houston to watch Vanderbilt Baseball Team play in a tournament. We arrived at the hotel and the staff went out of there way to make sure we had everything we needed. The room was clean and comfortable.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r572771177-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572771177</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Like home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a pleasant stay. Friendly and helpful staff. Shuttle service to area restaurants and the end even the airport. Clean rooms and beautiful courtyard to enjoy the pool and was err m weather. Would recommend and stay there again when in Houston.  Was nice to get a glass of wine before bed from the hotel bar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r566380348-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566380348</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Tore my pinkey toe in the bathroom</t>
+  </si>
+  <si>
+    <t>This hotel is ok in a pinch but my stay was just bland. The toilet in the bathroom gives little clearance to the door. I was getting out of the shower and had to stand in the corner to open the door to walk out of the bathroom and the door dragged over my little pinkey toe due to the lack of space and odd placement of the door. My toe has a nice vertical slice now. The cleaning people dont have band aides on them and I had to walk up to the front desk to get one. They clerk handed me two of them and surprisingly did not ask me what happened. Odd.  MoreShow less</t>
+  </si>
+  <si>
+    <t>ANGEL C, Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is ok in a pinch but my stay was just bland. The toilet in the bathroom gives little clearance to the door. I was getting out of the shower and had to stand in the corner to open the door to walk out of the bathroom and the door dragged over my little pinkey toe due to the lack of space and odd placement of the door. My toe has a nice vertical slice now. The cleaning people dont have band aides on them and I had to walk up to the front desk to get one. They clerk handed me two of them and surprisingly did not ask me what happened. Odd.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r550886902-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550886902</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Shuttle service is a nice touch!  Customer service was above and beyond</t>
+  </si>
+  <si>
+    <t>I felt very safe at this hotel.  Gated parking for the car.  Some areas were under construction.  A few places smelled a bit musty, room wasn't the greatest but it worked for our sleeping needs.  The rating I gave is mostly for the staff.  I burned my hand with a curling iron shortly after checking in to the hotel.  My husband asked the staff for some burn aids and they kindly came to my rescue.  My daughter around 11pm couldn't sleep/had a bad cough and was coming down ill.  The shuttle took me to the store to buy meds and picked me back up at no charge.  A great service for someone that doesn't know their way around Houston.  This saved our trip!  My daughter was able to get some meds in her system, sleep.  Check in and out was very simple. Staff was very kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I felt very safe at this hotel.  Gated parking for the car.  Some areas were under construction.  A few places smelled a bit musty, room wasn't the greatest but it worked for our sleeping needs.  The rating I gave is mostly for the staff.  I burned my hand with a curling iron shortly after checking in to the hotel.  My husband asked the staff for some burn aids and they kindly came to my rescue.  My daughter around 11pm couldn't sleep/had a bad cough and was coming down ill.  The shuttle took me to the store to buy meds and picked me back up at no charge.  A great service for someone that doesn't know their way around Houston.  This saved our trip!  My daughter was able to get some meds in her system, sleep.  Check in and out was very simple. Staff was very kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r543923488-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543923488</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>horrible, horrible, horrible</t>
+  </si>
+  <si>
+    <t>Musty room.  Half the lights don't work.  Staying here to catch a flight in the am.  Asked if I could drop my car tonight and get a pickup from Hertz (~1 mile away).  "No problem".  How do I do that?  "We have a procedure, Just call the number on this card."  Called entering the Hertz lot.  Told "pick up in 10-15 minutes".  Waited 20 minutes.  Kept waiting and decided to walk in the decidedly sketchy neighborhood.  Half way to the hotel the van raced by (over 30 minutes later).  No call asking where I was at Hertz.  Arrive at hotel and ask if there will be a similar wait in the morning.  I am told "there is a procedure for that".  Every time I spoke with the front desk, they had to tell the person on the other end of their personal call to wait while they answered my question.Place is a dump and needs to remove the Marriott logo.  Stay at the Doubletree up the road.Marriott platinum or gold for the last decade.  Will not stay here again after I check out in the morning.  I hope Uber is available for the ride to the airport, Because you can't rely on the shuttle.  Or I could just walk again...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Lauren N, Director of Sales at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Musty room.  Half the lights don't work.  Staying here to catch a flight in the am.  Asked if I could drop my car tonight and get a pickup from Hertz (~1 mile away).  "No problem".  How do I do that?  "We have a procedure, Just call the number on this card."  Called entering the Hertz lot.  Told "pick up in 10-15 minutes".  Waited 20 minutes.  Kept waiting and decided to walk in the decidedly sketchy neighborhood.  Half way to the hotel the van raced by (over 30 minutes later).  No call asking where I was at Hertz.  Arrive at hotel and ask if there will be a similar wait in the morning.  I am told "there is a procedure for that".  Every time I spoke with the front desk, they had to tell the person on the other end of their personal call to wait while they answered my question.Place is a dump and needs to remove the Marriott logo.  Stay at the Doubletree up the road.Marriott platinum or gold for the last decade.  Will not stay here again after I check out in the morning.  I hope Uber is available for the ride to the airport, Because you can't rely on the shuttle.  Or I could just walk again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r502292268-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502292268</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Good, inexpensive Courtyard by Airport.</t>
+  </si>
+  <si>
+    <t>1. Staff is great.  I have never been at such an accommodating hotel.  2.  Shuttle was ready when we were ready to head to airport at 3:30am.  3. Shuttle will take you to other places close by as long as it isn't during the airport rush (4-7pm).  4.  Room was acceptable, especially for the rate we paid (under $100).  5.  Hotel is a little worn; the hallway carpets need to be cleaned.  6. The pool is outside (too hot for me in July) and I think the workout room is on the other side of the pool (I never found it, but I didn't really look that hard).  For a clean room to place a tired body before heading to Hobby, this place worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>1. Staff is great.  I have never been at such an accommodating hotel.  2.  Shuttle was ready when we were ready to head to airport at 3:30am.  3. Shuttle will take you to other places close by as long as it isn't during the airport rush (4-7pm).  4.  Room was acceptable, especially for the rate we paid (under $100).  5.  Hotel is a little worn; the hallway carpets need to be cleaned.  6. The pool is outside (too hot for me in July) and I think the workout room is on the other side of the pool (I never found it, but I didn't really look that hard).  For a clean room to place a tired body before heading to Hobby, this place worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r495754963-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495754963</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Staff goes the extra mile</t>
+  </si>
+  <si>
+    <t>Basic accommodation but the staff made a late check-in experience pleasant.  I was stranded in Houston because of flight issues.   Ellen at the Bistro made me food even as she was closing the restaurant.  At the end of a long and difficult travel day, it was incredibly comforting. Actually one of the best hospitality experiences I can remember.  Rooms are basic but clean and comfortable.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r493051162-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493051162</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Great staff on site, but...</t>
+  </si>
+  <si>
+    <t>The lobby is inviting and warm, beyond that, I was not impressed.  This hotel is definitely in need of an upgrade.  The rooms are rather dark and dank.  There was also a smell that followed us anywhere beyond the lobby; including the suites.  The hotel had a very creepy feel as we walked about also.  I don't enjoy lodging in a hotel that makes me feel on edge the entire time and that I should be packing my side arm.  Also, they double charged me for our suites on June 9.  As of June 15, the charges have not been corrected.  I guess I will be calling my credit card company.  I am not quite sure if I would return to this hotel.  I am a gold elite Marriott customer who spends a lot of time in their hotels.  The customer service overall seems to be going down hill.  It is really upsetting.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby is inviting and warm, beyond that, I was not impressed.  This hotel is definitely in need of an upgrade.  The rooms are rather dark and dank.  There was also a smell that followed us anywhere beyond the lobby; including the suites.  The hotel had a very creepy feel as we walked about also.  I don't enjoy lodging in a hotel that makes me feel on edge the entire time and that I should be packing my side arm.  Also, they double charged me for our suites on June 9.  As of June 15, the charges have not been corrected.  I guess I will be calling my credit card company.  I am not quite sure if I would return to this hotel.  I am a gold elite Marriott customer who spends a lot of time in their hotels.  The customer service overall seems to be going down hill.  It is really upsetting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r486688860-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486688860</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Staff was very nice</t>
+  </si>
+  <si>
+    <t>I am a Plat at Marriott and stay in many hotels.  My wife and I stayed here last weekend.  The hotel was very quiet and close to Hobby airport. Shuttle picked us up and would like to compliment the front desk Adreanne Cryer.  She worked most of weekend and was very responsive to our needs.  The pool and hot tub were very clean and relaxing.  Highly recommend if you need a hotel by the Hobby airport.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r476841849-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476841849</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Above and Beyond!</t>
+  </si>
+  <si>
+    <t>I would like to give a huge Thank You to Angel and Ellen for going above and beyond to "rescue" my daughter from a scary situation.  
+Our college aged daughter missed her connecting flight and was stuck overnight at the Hobby airport alone.  She didn't take the airlines advice and book a respectable hotel, on her limited budget she booked the Hobby Inn (because it was half the price of the recommended hotel and had a free breakfast)...obviously she didn't check the Trip Advisor feedback first!     
+She called in a panic.  She was so scared.  She was in her room and did not feel safe.  She said she thought a man followed her, she could hear voices outside and the door did not seem secure.  It didn't even have a deadbolt lock.  She said the room was horrible and that she could not stay there.  She was almost hysterical because she feared for her safety.
+My husband called Courtyard Houston Hobby Airport (the recommended hotel) and Angel answered.  He quickly explained what are problem was and she calmly said let me see where our shuttle is.  After just a moment she said our shuttle driver can be there in 10 minutes.  Have her stay in her room until she sees our green van with our logo on the side.  
+Ellen was the van driver and she arrived within 10 minutes.  Thank you Ellen for helping my daughter feel safe.  She...I would like to give a huge Thank You to Angel and Ellen for going above and beyond to "rescue" my daughter from a scary situation.  Our college aged daughter missed her connecting flight and was stuck overnight at the Hobby airport alone.  She didn't take the airlines advice and book a respectable hotel, on her limited budget she booked the Hobby Inn (because it was half the price of the recommended hotel and had a free breakfast)...obviously she didn't check the Trip Advisor feedback first!     She called in a panic.  She was so scared.  She was in her room and did not feel safe.  She said she thought a man followed her, she could hear voices outside and the door did not seem secure.  It didn't even have a deadbolt lock.  She said the room was horrible and that she could not stay there.  She was almost hysterical because she feared for her safety.My husband called Courtyard Houston Hobby Airport (the recommended hotel) and Angel answered.  He quickly explained what are problem was and she calmly said let me see where our shuttle is.  After just a moment she said our shuttle driver can be there in 10 minutes.  Have her stay in her room until she sees our green van with our logo on the side.  Ellen was the van driver and she arrived within 10 minutes.  Thank you Ellen for helping my daughter feel safe.  She said you were so comforting to her.  Angel was at the front desk to check her in and let her know that she would be fine.  I can't think these two ladies enough!  I also want to thank Courtyard for having such fine ladies on staff!  I'm sure they promote customer service but for these two ladies to swoop in and rescue my "baby" was so appreciated!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I would like to give a huge Thank You to Angel and Ellen for going above and beyond to "rescue" my daughter from a scary situation.  
+Our college aged daughter missed her connecting flight and was stuck overnight at the Hobby airport alone.  She didn't take the airlines advice and book a respectable hotel, on her limited budget she booked the Hobby Inn (because it was half the price of the recommended hotel and had a free breakfast)...obviously she didn't check the Trip Advisor feedback first!     
+She called in a panic.  She was so scared.  She was in her room and did not feel safe.  She said she thought a man followed her, she could hear voices outside and the door did not seem secure.  It didn't even have a deadbolt lock.  She said the room was horrible and that she could not stay there.  She was almost hysterical because she feared for her safety.
+My husband called Courtyard Houston Hobby Airport (the recommended hotel) and Angel answered.  He quickly explained what are problem was and she calmly said let me see where our shuttle is.  After just a moment she said our shuttle driver can be there in 10 minutes.  Have her stay in her room until she sees our green van with our logo on the side.  
+Ellen was the van driver and she arrived within 10 minutes.  Thank you Ellen for helping my daughter feel safe.  She...I would like to give a huge Thank You to Angel and Ellen for going above and beyond to "rescue" my daughter from a scary situation.  Our college aged daughter missed her connecting flight and was stuck overnight at the Hobby airport alone.  She didn't take the airlines advice and book a respectable hotel, on her limited budget she booked the Hobby Inn (because it was half the price of the recommended hotel and had a free breakfast)...obviously she didn't check the Trip Advisor feedback first!     She called in a panic.  She was so scared.  She was in her room and did not feel safe.  She said she thought a man followed her, she could hear voices outside and the door did not seem secure.  It didn't even have a deadbolt lock.  She said the room was horrible and that she could not stay there.  She was almost hysterical because she feared for her safety.My husband called Courtyard Houston Hobby Airport (the recommended hotel) and Angel answered.  He quickly explained what are problem was and she calmly said let me see where our shuttle is.  After just a moment she said our shuttle driver can be there in 10 minutes.  Have her stay in her room until she sees our green van with our logo on the side.  Ellen was the van driver and she arrived within 10 minutes.  Thank you Ellen for helping my daughter feel safe.  She said you were so comforting to her.  Angel was at the front desk to check her in and let her know that she would be fine.  I can't think these two ladies enough!  I also want to thank Courtyard for having such fine ladies on staff!  I'm sure they promote customer service but for these two ladies to swoop in and rescue my "baby" was so appreciated!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r469599408-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469599408</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Fire Alarm Wake Up</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here after flying into Houston very late.  The receptionist was pleasant, the room was clean, and the bed was okay (though not up to par with most other hotels we've been to lately).  Everything was okay until 8 am-- when they tested the fire alarms.  No notification when we checked in or warning note in the room-- just ear-piercing, crazy loud bussing directly above our bed and al through the hotel.  Not a pleasant way to be awoken, let alone after a very long day of work and travel.I informed the manager as we were leaving and she was apologetic, but the experience wasn't great.  We don't have plans to visit Houston for a while, but I will hesitate before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here after flying into Houston very late.  The receptionist was pleasant, the room was clean, and the bed was okay (though not up to par with most other hotels we've been to lately).  Everything was okay until 8 am-- when they tested the fire alarms.  No notification when we checked in or warning note in the room-- just ear-piercing, crazy loud bussing directly above our bed and al through the hotel.  Not a pleasant way to be awoken, let alone after a very long day of work and travel.I informed the manager as we were leaving and she was apologetic, but the experience wasn't great.  We don't have plans to visit Houston for a while, but I will hesitate before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r458404925-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458404925</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Typical Courtyard comfort. Needs just minor sprucing up</t>
+  </si>
+  <si>
+    <t>I've stayed in many courtyards. And once inside they are all pretty much the same. Same rooms, furniture, layouts, and comfort. My room here was all that.  Only noticeable things were the couch a bit worn ( not gross or anything ). And the carpet had been patched which stood out like a sore thumb. But bed was comfy, a/c worked like s charm. Very bad storms one night I was there and barely heard it.  Very restful Parking is weird. Fenced all around but getting into the fence and then getting into the hotel once behind the fence was odd.  But figured it out.  I found the staff to be pleasant and helpful. I'll definitely stay here again if rates stay competitive with the spring hill suites and Fairfield inn both of which I've also stayed in.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I've stayed in many courtyards. And once inside they are all pretty much the same. Same rooms, furniture, layouts, and comfort. My room here was all that.  Only noticeable things were the couch a bit worn ( not gross or anything ). And the carpet had been patched which stood out like a sore thumb. But bed was comfy, a/c worked like s charm. Very bad storms one night I was there and barely heard it.  Very restful Parking is weird. Fenced all around but getting into the fence and then getting into the hotel once behind the fence was odd.  But figured it out.  I found the staff to be pleasant and helpful. I'll definitely stay here again if rates stay competitive with the spring hill suites and Fairfield inn both of which I've also stayed in.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r455731585-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455731585</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical comfortable Courtyard. My mom and I stayed one night since we had a fight to catch at 7 am the next day.  The shuttle was very convenient running 24 hours a day every 30 min.  The thing I wasn't quite a fan of the fitness center was not connected to the hotel.  You had to walk outside (which was 50 degrees) in order to workout.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r447917967-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447917967</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>it is what its supposed to be</t>
+  </si>
+  <si>
+    <t>this is a clean nice hotel very close to hobby airport. there is a shuttle that you can use to take you anywhere within three miles of the hotel and which will pick you up and drop you at the airport. the staff is super friendly and accommodating.. place was perfect for our needs and i would definitely stay again</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r421650229-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421650229</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Booked a room at the CY because they are a known value. This property should not be in the Marriott system. Stay away even though it is "Marriott" it is not a place you want to stay. The staff has a big chip on their should. You get total attitude from almost all the staff. The parking lot is like a prison. You can't get to the lobby unless you know the security lock code. To get into the hotel you have to walk past large open trash bins. This hotel needs management the actually wants guests to stay at the hotel.Rooms are dated and dirty. Lobby is current but the staff makes you feel unwelcome. Defininatly steer clear of this one.  It should not be a Marriott very much long run the way it is being run.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Lauren N, Event Specialist at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Booked a room at the CY because they are a known value. This property should not be in the Marriott system. Stay away even though it is "Marriott" it is not a place you want to stay. The staff has a big chip on their should. You get total attitude from almost all the staff. The parking lot is like a prison. You can't get to the lobby unless you know the security lock code. To get into the hotel you have to walk past large open trash bins. This hotel needs management the actually wants guests to stay at the hotel.Rooms are dated and dirty. Lobby is current but the staff makes you feel unwelcome. Defininatly steer clear of this one.  It should not be a Marriott very much long run the way it is being run.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r417754025-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417754025</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Almost perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at a lot of Courtyards for business and this one falls a little short for me. The staff is super friendly and the facility is clean, but the parking is weird. There is no fridge or microwave in room and the fitness center only has 2 treadmills and 1 elliptical and is very small. All in all, clean and functional but a little short. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r412937645-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412937645</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not so hot </t>
+  </si>
+  <si>
+    <t>Hotel has the basics. The gates and steel fences gives you an idea. For the price if you have to stay there for work or a short stop it is ok . You have to pay for breakfast. Nothing is free. No cookies or Apples. Better stay next door at the Marriott if the price is similar  MoreShow less</t>
+  </si>
+  <si>
+    <t>Lauren N, Director of Sales at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Hotel has the basics. The gates and steel fences gives you an idea. For the price if you have to stay there for work or a short stop it is ok . You have to pay for breakfast. Nothing is free. No cookies or Apples. Better stay next door at the Marriott if the price is similar  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r403715128-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403715128</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>O' My !</t>
+  </si>
+  <si>
+    <t>Let me start by saying I have stayed at this Courtyard on several occasions over the years , and I loved it! However, this go around was very concerning to me and I am not pleased with my entire stay. Upon arrival I met with a very polite and respectful young man that checked me in immediately with no problems, thank you For that. The room was clean when we walked in and seemed exceptionally comfy! We slept like 
+angels and felt well rested the next morning. First things first, Coffee please. I head down to the lobby to ask for cream and sugar and the woman at the desk was on the phone for several minutes on a personal call and didn't even acknowledge me. I took it upon myself to look around and grab a handful and leave without her speaking at all, O'MY!  Ok so back to the room I go in total disbelief,  we  booked a patio room ,  so we went out to enjoy coffee and conversation when we looked out and noticed the pool was dirty ugghhh. There was all type of debris floating on top and out of no where here comes close to 10 children that jumped in. I thought O My Gosh, why didn't they close the pool till it was cleaned!??  This could be very harmful,  shame on you Courtyard!  At this point I am still in shock over the...Let me start by saying I have stayed at this Courtyard on several occasions over the years , and I loved it! However, this go around was very concerning to me and I am not pleased with my entire stay. Upon arrival I met with a very polite and respectful young man that checked me in immediately with no problems, thank you For that. The room was clean when we walked in and seemed exceptionally comfy! We slept like angels and felt well rested the next morning. First things first, Coffee please. I head down to the lobby to ask for cream and sugar and the woman at the desk was on the phone for several minutes on a personal call and didn't even acknowledge me. I took it upon myself to look around and grab a handful and leave without her speaking at all, O'MY!  Ok so back to the room I go in total disbelief,  we  booked a patio room ,  so we went out to enjoy coffee and conversation when we looked out and noticed the pool was dirty ugghhh. There was all type of debris floating on top and out of no where here comes close to 10 children that jumped in. I thought O My Gosh, why didn't they close the pool till it was cleaned!??  This could be very harmful,  shame on you Courtyard!  At this point I am still in shock over the pool so we head back inside to see a ROACH crawling on the night stand. Very, Very disgusting , O' My what has happened to my Favorite Courtyard??  I am a Marriot Rewards member and I really hate to end our relationship this way but I will not be returning back to this property. Thanks but no ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Lauren N, Director of Sales at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Let me start by saying I have stayed at this Courtyard on several occasions over the years , and I loved it! However, this go around was very concerning to me and I am not pleased with my entire stay. Upon arrival I met with a very polite and respectful young man that checked me in immediately with no problems, thank you For that. The room was clean when we walked in and seemed exceptionally comfy! We slept like 
+angels and felt well rested the next morning. First things first, Coffee please. I head down to the lobby to ask for cream and sugar and the woman at the desk was on the phone for several minutes on a personal call and didn't even acknowledge me. I took it upon myself to look around and grab a handful and leave without her speaking at all, O'MY!  Ok so back to the room I go in total disbelief,  we  booked a patio room ,  so we went out to enjoy coffee and conversation when we looked out and noticed the pool was dirty ugghhh. There was all type of debris floating on top and out of no where here comes close to 10 children that jumped in. I thought O My Gosh, why didn't they close the pool till it was cleaned!??  This could be very harmful,  shame on you Courtyard!  At this point I am still in shock over the...Let me start by saying I have stayed at this Courtyard on several occasions over the years , and I loved it! However, this go around was very concerning to me and I am not pleased with my entire stay. Upon arrival I met with a very polite and respectful young man that checked me in immediately with no problems, thank you For that. The room was clean when we walked in and seemed exceptionally comfy! We slept like angels and felt well rested the next morning. First things first, Coffee please. I head down to the lobby to ask for cream and sugar and the woman at the desk was on the phone for several minutes on a personal call and didn't even acknowledge me. I took it upon myself to look around and grab a handful and leave without her speaking at all, O'MY!  Ok so back to the room I go in total disbelief,  we  booked a patio room ,  so we went out to enjoy coffee and conversation when we looked out and noticed the pool was dirty ugghhh. There was all type of debris floating on top and out of no where here comes close to 10 children that jumped in. I thought O My Gosh, why didn't they close the pool till it was cleaned!??  This could be very harmful,  shame on you Courtyard!  At this point I am still in shock over the pool so we head back inside to see a ROACH crawling on the night stand. Very, Very disgusting , O' My what has happened to my Favorite Courtyard??  I am a Marriot Rewards member and I really hate to end our relationship this way but I will not be returning back to this property. Thanks but no ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r400938966-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400938966</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>a very good choice and very nice manager,</t>
+  </si>
+  <si>
+    <t>We like Marriott courtyards. The rooms are ample size, with comfortable beds.I used points for 2 rooms. One certificate and 1 on points.We were hungry, and they had their shuttle take us and pick us up from a restaurant.Their manager Yolanda, was very accommodating , and offered a special promotion of2 free breakfasts if we paid for two.The breakfast's were cooked to order, and the coffee was good.They also took care of ordering a cab to take the 4 of us to the Galveston cruise terminal.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r396025089-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396025089</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>We reserved our room on line after reviewing the hotel website. But when we get there nothing like what has been described by the website. We were very disappointed. And very bad experience with the Marriott chain of hotels.Ice machine located on the second and third floor, No towels in the pool area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lauren N, Director of Sales at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>We reserved our room on line after reviewing the hotel website. But when we get there nothing like what has been described by the website. We were very disappointed. And very bad experience with the Marriott chain of hotels.Ice machine located on the second and third floor, No towels in the pool area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r383552143-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383552143</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Two visits in June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at the Courtyard both ways through Houston. It's a nice clean hotel with a really nice pool area. I left my necklace in the room the first time. They saved it for me when we came back the second time. It's so nice to have honest people in this sometimes shady world that we live in. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r380659956-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380659956</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Honk the horn and pass on by!</t>
+  </si>
+  <si>
+    <t>There is an odd fencing arrangement in the front parking lot with gates.  The gates didn't work nor did the fencing encompass the whole front lot.  When asked if I could park in the back, closer to the back door and my room, I was told it was not recommended.  Bed was very hard.  Air didn't cool - if you are in Southeast Texas you want the air to cool!  Oddly configured room also.  Couch had a cigarette burn.  Some noise.  I would never stay there again. Stayed there bc of Hobby Airport and early flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>There is an odd fencing arrangement in the front parking lot with gates.  The gates didn't work nor did the fencing encompass the whole front lot.  When asked if I could park in the back, closer to the back door and my room, I was told it was not recommended.  Bed was very hard.  Air didn't cool - if you are in Southeast Texas you want the air to cool!  Oddly configured room also.  Couch had a cigarette burn.  Some noise.  I would never stay there again. Stayed there bc of Hobby Airport and early flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r377423468-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377423468</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Me and my family have stayed here for the last two weeks and the staff here is AMAZING. The staff was extremely kind and was great with my children. Carlton, Raheem and Brittney were the main reason why ive decided to stay here so long while im here on business. The hotel was pretty medicore but the service made up for it, especially from Carlton. He has a wonderful smile that just brightens up your day. I plan on visiting again and im extremely excited.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family have stayed here for the last two weeks and the staff here is AMAZING. The staff was extremely kind and was great with my children. Carlton, Raheem and Brittney were the main reason why ive decided to stay here so long while im here on business. The hotel was pretty medicore but the service made up for it, especially from Carlton. He has a wonderful smile that just brightens up your day. I plan on visiting again and im extremely excited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r362859838-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362859838</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK for a quick overnight </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after a late arriving flight. One of the reasons I wanted to stay at the hotel was because of the free shuttle from the airport. However, we waited for over a half hour at 11:30 PM at the airport for the shuttle because it was too small to transport everyone that was waiting to go to the the Marriott brand hotels that night which was frustrating. Once we did get on the shuttle I heard another customer speaking about the price that he pays to stay in the hotel and it was half of what my family was paying for a basic room. The front desk attendant was very nice and worked as efficiently as she could on her own.  The room was nice and clean; nothing special, which was fine because we were only there for 8 hours to sleep and then travel the rest of the way to our destination. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Lauren N, Event Specialist at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel after a late arriving flight. One of the reasons I wanted to stay at the hotel was because of the free shuttle from the airport. However, we waited for over a half hour at 11:30 PM at the airport for the shuttle because it was too small to transport everyone that was waiting to go to the the Marriott brand hotels that night which was frustrating. Once we did get on the shuttle I heard another customer speaking about the price that he pays to stay in the hotel and it was half of what my family was paying for a basic room. The front desk attendant was very nice and worked as efficiently as she could on her own.  The room was nice and clean; nothing special, which was fine because we were only there for 8 hours to sleep and then travel the rest of the way to our destination. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r361769352-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361769352</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Expensive for 2 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room looked clean, the couch looked like 2 cushions were taken from a completely different couch . Walls looked freshly painted. The bathroom left much to be desired. Tub was so clogged, water was above my ankles. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r351375844-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351375844</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>5 day stay</t>
+  </si>
+  <si>
+    <t>Overall room was nice, staff was nice and breakfast Buffett was typical. We had 3 days with luke warm water in the am, warmed up later in the day so we just switched out showers to the evening. No real restaurants in walking distance and the one that is located in the parking lot was probably one of the worst dining experiences we've ever encountered. Horrible food, horrible service and so loud you could feel the music in your chest lol! So I'm hoping someday a nice restaurant might open near the hotel or the hotel open a small diner :)</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r343419723-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343419723</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Overnight pre-cruise</t>
+  </si>
+  <si>
+    <t>We were promptly picked up at Hobby airport by the hotel shuttle-Ellen was the shuttle driver and she was an example of joy in her job. She provided excellent customer service and representative for this location however....We were told we had breakfast included and it was not. They do have food available on location which was fairly spendy..and no free coffee. Our room was clean and comfortable. I had requested a room close to the elevator as I was traveling with my disable mother however we were given a room with a significant walk. We were told it could not be changed. Not sure we would stay at this location without having something in writing that certain things promised would be fulfilled.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Lauren N, Event Specialist at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2016</t>
+  </si>
+  <si>
+    <t>We were promptly picked up at Hobby airport by the hotel shuttle-Ellen was the shuttle driver and she was an example of joy in her job. She provided excellent customer service and representative for this location however....We were told we had breakfast included and it was not. They do have food available on location which was fairly spendy..and no free coffee. Our room was clean and comfortable. I had requested a room close to the elevator as I was traveling with my disable mother however we were given a room with a significant walk. We were told it could not be changed. Not sure we would stay at this location without having something in writing that certain things promised would be fulfilled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r342350432-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342350432</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>pre-cruise</t>
+  </si>
+  <si>
+    <t>We stayed a night here prior to our cruise from Houston Bayport. The hotel was clean, comfortable and affordable  cannot say enough good things about the staff. They went out of their way to be sure we were happy. They have an airport shuttle service and will also shuttle you to dining or shopping, free of charge, tips are greatly appreciated and well deserved.
+I am embarrassed to say we forgot the hostess name who played a primary part in our overall satisfaction. 
+She checked us in, drove us to shopping and let us stay in the room past checkout, due to our ship being 5 hours behind schedule  She was sweet, engaging, extremely helpful and friendly. She called us cutie patio ties.. We highly recommend this as a pre or post stop for cruisers.They do not shuttle you to the cruise ports, We used Uber (Bruce) only $25.
+They have a pool, bar and food service, as well as a small mini market. The breakfast was cooked to order and tasty.. Bar wasn't cheap but not too far out of line either, we had a $6 beer the Evening we arrived.
+I see a lot of bad reviews for room and staff, I tend not to believe most of the negative reviews. Some people can be very critical and expect the Ritz for Flop house prices. 
+We experienced a few snobby and rude patrons, who personally, I would have...We stayed a night here prior to our cruise from Houston Bayport. The hotel was clean, comfortable and affordable  cannot say enough good things about the staff. They went out of their way to be sure we were happy. They have an airport shuttle service and will also shuttle you to dining or shopping, free of charge, tips are greatly appreciated and well deserved.I am embarrassed to say we forgot the hostess name who played a primary part in our overall satisfaction. She checked us in, drove us to shopping and let us stay in the room past checkout, due to our ship being 5 hours behind schedule  She was sweet, engaging, extremely helpful and friendly. She called us cutie patio ties.. We highly recommend this as a pre or post stop for cruisers.They do not shuttle you to the cruise ports, We used Uber (Bruce) only $25.They have a pool, bar and food service, as well as a small mini market. The breakfast was cooked to order and tasty.. Bar wasn't cheap but not too far out of line either, we had a $6 beer the Evening we arrived.I see a lot of bad reviews for room and staff, I tend not to believe most of the negative reviews. Some people can be very critical and expect the Ritz for Flop house prices. We experienced a few snobby and rude patrons, who personally, I would have sent packing. The staff did their best to accommodate these unappreciative people too. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed a night here prior to our cruise from Houston Bayport. The hotel was clean, comfortable and affordable  cannot say enough good things about the staff. They went out of their way to be sure we were happy. They have an airport shuttle service and will also shuttle you to dining or shopping, free of charge, tips are greatly appreciated and well deserved.
+I am embarrassed to say we forgot the hostess name who played a primary part in our overall satisfaction. 
+She checked us in, drove us to shopping and let us stay in the room past checkout, due to our ship being 5 hours behind schedule  She was sweet, engaging, extremely helpful and friendly. She called us cutie patio ties.. We highly recommend this as a pre or post stop for cruisers.They do not shuttle you to the cruise ports, We used Uber (Bruce) only $25.
+They have a pool, bar and food service, as well as a small mini market. The breakfast was cooked to order and tasty.. Bar wasn't cheap but not too far out of line either, we had a $6 beer the Evening we arrived.
+I see a lot of bad reviews for room and staff, I tend not to believe most of the negative reviews. Some people can be very critical and expect the Ritz for Flop house prices. 
+We experienced a few snobby and rude patrons, who personally, I would have...We stayed a night here prior to our cruise from Houston Bayport. The hotel was clean, comfortable and affordable  cannot say enough good things about the staff. They went out of their way to be sure we were happy. They have an airport shuttle service and will also shuttle you to dining or shopping, free of charge, tips are greatly appreciated and well deserved.I am embarrassed to say we forgot the hostess name who played a primary part in our overall satisfaction. She checked us in, drove us to shopping and let us stay in the room past checkout, due to our ship being 5 hours behind schedule  She was sweet, engaging, extremely helpful and friendly. She called us cutie patio ties.. We highly recommend this as a pre or post stop for cruisers.They do not shuttle you to the cruise ports, We used Uber (Bruce) only $25.They have a pool, bar and food service, as well as a small mini market. The breakfast was cooked to order and tasty.. Bar wasn't cheap but not too far out of line either, we had a $6 beer the Evening we arrived.I see a lot of bad reviews for room and staff, I tend not to believe most of the negative reviews. Some people can be very critical and expect the Ritz for Flop house prices. We experienced a few snobby and rude patrons, who personally, I would have sent packing. The staff did their best to accommodate these unappreciative people too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r338767232-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338767232</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is very convenient to airport. Great service by the staff. Shuttle available to guest use to stores and restaurants!  Ellen the shuttle driver is wonderful ! Limited dining options in hotel but does have some meals in its lobby area </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r333128454-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333128454</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy, the hotel was clean and has a nice pool area. The rooms are nice, clean and well equipped. Beds are comfy as well. Front desk is friendly and costumer service oriented. It's about 10 mins from the airport (Hobby) and about 40 mins from Galveston. Overall I had a good stay at this hotel</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r329625726-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329625726</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Convenient hotel near the airport</t>
+  </si>
+  <si>
+    <t>We stayed here for one night prior to a cruise out of Galveston. The hotel offers a free shuttle to and from the airport. The room was fine - all the standard amenities you would expect. Check in was smooth and everyone working there was friendly and efficient. No free breakfast but there's a restaurant and also a little cafe in the lobby. We had good breakfast sandwiches and fruit from there and it was perfect. Our cruise shuttle was picking us up from the airport so we hopped on the hotel shuttle back to the airport first. There is not much around the hotel and it's not an area you'd want to walk in. The hotel shuttle is available though at least at night to drive you to and from locations close by. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night prior to a cruise out of Galveston. The hotel offers a free shuttle to and from the airport. The room was fine - all the standard amenities you would expect. Check in was smooth and everyone working there was friendly and efficient. No free breakfast but there's a restaurant and also a little cafe in the lobby. We had good breakfast sandwiches and fruit from there and it was perfect. Our cruise shuttle was picking us up from the airport so we hopped on the hotel shuttle back to the airport first. There is not much around the hotel and it's not an area you'd want to walk in. The hotel shuttle is available though at least at night to drive you to and from locations close by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r329252954-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329252954</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Great room with magnificent service</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Courtyard by Marriott Houston Hobby Airport in November of 2015. We were on our way to a cruise leaving out of Galveston Texas. Our flight got in around 9:30 PM so we opted to stay the night near the airport. We picked up the shuttle just outside of baggage claim. We were greeted by a very nice shuttle driver. She was very professional and extremely efficient. 
+Check-in was a breeze. The room was very clean and quiet. At around 11 PM, we decided to go get a bite to eat. We noticed that Taco Cabana was near by, when we asked the front room for directions, the shuttle driver (a different woman this time) said that she would be glad to drive us the 1 1/2 blocks to the restaurant. She said that she didn't want us walking and even gave us her card and phone number and asked that we call when we were done eating. 
+The next morning, we took the shuttle back to the airport where we boarded the SuperShuttle to the port. Believe it or not, it was cheaper to go back to the airport than to have them pick us up at the hotel. 
+Check out was super easy and the front desk and restaurant staff were very friendly and efficient. Please note that this hotel does not have complimentary breakfast, so you need to pay for your...My wife and I stayed at the Courtyard by Marriott Houston Hobby Airport in November of 2015. We were on our way to a cruise leaving out of Galveston Texas. Our flight got in around 9:30 PM so we opted to stay the night near the airport. We picked up the shuttle just outside of baggage claim. We were greeted by a very nice shuttle driver. She was very professional and extremely efficient. Check-in was a breeze. The room was very clean and quiet. At around 11 PM, we decided to go get a bite to eat. We noticed that Taco Cabana was near by, when we asked the front room for directions, the shuttle driver (a different woman this time) said that she would be glad to drive us the 1 1/2 blocks to the restaurant. She said that she didn't want us walking and even gave us her card and phone number and asked that we call when we were done eating. The next morning, we took the shuttle back to the airport where we boarded the SuperShuttle to the port. Believe it or not, it was cheaper to go back to the airport than to have them pick us up at the hotel. Check out was super easy and the front desk and restaurant staff were very friendly and efficient. Please note that this hotel does not have complimentary breakfast, so you need to pay for your breakfast meal. The lobby area had plenty of room to sit and eat your breakfast or to wait for the shuttle. They have small TVs near the seating area where you can catch the news or your favorite morning show and a larger TV in the corner where I caught Sports Central updates. The lobby also had two stations each with 2 computers and printers you could use to print your boarding pass, an ATM and a mini market where you could get a snack or items you may have forgotten for your trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Courtyard by Marriott Houston Hobby Airport in November of 2015. We were on our way to a cruise leaving out of Galveston Texas. Our flight got in around 9:30 PM so we opted to stay the night near the airport. We picked up the shuttle just outside of baggage claim. We were greeted by a very nice shuttle driver. She was very professional and extremely efficient. 
+Check-in was a breeze. The room was very clean and quiet. At around 11 PM, we decided to go get a bite to eat. We noticed that Taco Cabana was near by, when we asked the front room for directions, the shuttle driver (a different woman this time) said that she would be glad to drive us the 1 1/2 blocks to the restaurant. She said that she didn't want us walking and even gave us her card and phone number and asked that we call when we were done eating. 
+The next morning, we took the shuttle back to the airport where we boarded the SuperShuttle to the port. Believe it or not, it was cheaper to go back to the airport than to have them pick us up at the hotel. 
+Check out was super easy and the front desk and restaurant staff were very friendly and efficient. Please note that this hotel does not have complimentary breakfast, so you need to pay for your...My wife and I stayed at the Courtyard by Marriott Houston Hobby Airport in November of 2015. We were on our way to a cruise leaving out of Galveston Texas. Our flight got in around 9:30 PM so we opted to stay the night near the airport. We picked up the shuttle just outside of baggage claim. We were greeted by a very nice shuttle driver. She was very professional and extremely efficient. Check-in was a breeze. The room was very clean and quiet. At around 11 PM, we decided to go get a bite to eat. We noticed that Taco Cabana was near by, when we asked the front room for directions, the shuttle driver (a different woman this time) said that she would be glad to drive us the 1 1/2 blocks to the restaurant. She said that she didn't want us walking and even gave us her card and phone number and asked that we call when we were done eating. The next morning, we took the shuttle back to the airport where we boarded the SuperShuttle to the port. Believe it or not, it was cheaper to go back to the airport than to have them pick us up at the hotel. Check out was super easy and the front desk and restaurant staff were very friendly and efficient. Please note that this hotel does not have complimentary breakfast, so you need to pay for your breakfast meal. The lobby area had plenty of room to sit and eat your breakfast or to wait for the shuttle. They have small TVs near the seating area where you can catch the news or your favorite morning show and a larger TV in the corner where I caught Sports Central updates. The lobby also had two stations each with 2 computers and printers you could use to print your boarding pass, an ATM and a mini market where you could get a snack or items you may have forgotten for your trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r316880082-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316880082</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>NASA FieldTrip</t>
+  </si>
+  <si>
+    <t>We brought three charter buses of elementary students and parents to the hotel. Donia Blossom and her staff made the process so simple.  A room assignment was created before arriving.  This allowed us to just pass out keys when we arrived. There was no need for each room to check in individually.  The hotel provided a great room rate which included a hot breakfast in a private banquet room.  The staff was able to block all charges that the students might "accidentally" select.  Plenty of towels were provided for the rooms that held four people.  If we ever travel back to NASA, I would definitely stay there :)  Special thanks to Donia Blossom for terrific communication, and accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We brought three charter buses of elementary students and parents to the hotel. Donia Blossom and her staff made the process so simple.  A room assignment was created before arriving.  This allowed us to just pass out keys when we arrived. There was no need for each room to check in individually.  The hotel provided a great room rate which included a hot breakfast in a private banquet room.  The staff was able to block all charges that the students might "accidentally" select.  Plenty of towels were provided for the rooms that held four people.  If we ever travel back to NASA, I would definitely stay there :)  Special thanks to Donia Blossom for terrific communication, and accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r313019962-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313019962</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Very generic Courtyard - close to Hobby though!</t>
+  </si>
+  <si>
+    <t>I stayed here because it was so close to the Hobby Airport.  There is nothing special about this hotel - but being close to the airport is why I picked it and that made it fine.  Very small gym as all Courtyard's have which is always disappoiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here because it was so close to the Hobby Airport.  There is nothing special about this hotel - but being close to the airport is why I picked it and that made it fine.  Very small gym as all Courtyard's have which is always disappoiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r308804019-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308804019</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>perfect stay</t>
+  </si>
+  <si>
+    <t>We got in and check in was a breeze. The room was great. The bed was comfortable. The room was roomy with all the amenities we wanted. We enjoyed the area and had dinner within walking distance. We had some breakfast and the prices were reasonable. We didn't try the pool but it looked fine and it was busy. Parking was convenient. Our room opened to a small patio and we could park outside the door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r303520400-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303520400</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Older Courtyard ... Needs Some Help</t>
+  </si>
+  <si>
+    <t>Overall, this property is a bit dated and in need of upgrading to be consistent with some of the newer Courtyard properties.  The room itself, while being of typical size, was in need of updating and repairs.  Upon entering, the room had a definite "musty odor", probably because of the AC being turned down to save on costs during periods when the room is not occupied.  In addition, there were several items that required repair, such as several outlets that were so worn they would not hold a plug as well as the sink stopper handle which just pulled free when I went to use it.  In addition, while I appreciated having a mini-fridge, it to was in need of being repaired as one of the feet were missing.
+Another area of concern was housekeeping.  I did not get a warm and fuzzy feeling that the room was well cleaned.  There was till evidence of the previous occupants in the room such as bits of trash on the floor, which was obviously not vacuumed.  It always make me suspect when I see that.  
+As far as the overall property is concerned, it was similar.  The stairwells had a musty odor like the room and the outdoor pool seemed like it had not been cleaned in a while.  One positive, it seemed the lobby had been updated in the recent past.
+Having said all that, as always, the front desk staff...Overall, this property is a bit dated and in need of upgrading to be consistent with some of the newer Courtyard properties.  The room itself, while being of typical size, was in need of updating and repairs.  Upon entering, the room had a definite "musty odor", probably because of the AC being turned down to save on costs during periods when the room is not occupied.  In addition, there were several items that required repair, such as several outlets that were so worn they would not hold a plug as well as the sink stopper handle which just pulled free when I went to use it.  In addition, while I appreciated having a mini-fridge, it to was in need of being repaired as one of the feet were missing.Another area of concern was housekeeping.  I did not get a warm and fuzzy feeling that the room was well cleaned.  There was till evidence of the previous occupants in the room such as bits of trash on the floor, which was obviously not vacuumed.  It always make me suspect when I see that.  As far as the overall property is concerned, it was similar.  The stairwells had a musty odor like the room and the outdoor pool seemed like it had not been cleaned in a while.  One positive, it seemed the lobby had been updated in the recent past.Having said all that, as always, the front desk staff were pleasant and helpful.  It is the one consistent thing I find with most Marriott properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>9190Management, Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Overall, this property is a bit dated and in need of upgrading to be consistent with some of the newer Courtyard properties.  The room itself, while being of typical size, was in need of updating and repairs.  Upon entering, the room had a definite "musty odor", probably because of the AC being turned down to save on costs during periods when the room is not occupied.  In addition, there were several items that required repair, such as several outlets that were so worn they would not hold a plug as well as the sink stopper handle which just pulled free when I went to use it.  In addition, while I appreciated having a mini-fridge, it to was in need of being repaired as one of the feet were missing.
+Another area of concern was housekeeping.  I did not get a warm and fuzzy feeling that the room was well cleaned.  There was till evidence of the previous occupants in the room such as bits of trash on the floor, which was obviously not vacuumed.  It always make me suspect when I see that.  
+As far as the overall property is concerned, it was similar.  The stairwells had a musty odor like the room and the outdoor pool seemed like it had not been cleaned in a while.  One positive, it seemed the lobby had been updated in the recent past.
+Having said all that, as always, the front desk staff...Overall, this property is a bit dated and in need of upgrading to be consistent with some of the newer Courtyard properties.  The room itself, while being of typical size, was in need of updating and repairs.  Upon entering, the room had a definite "musty odor", probably because of the AC being turned down to save on costs during periods when the room is not occupied.  In addition, there were several items that required repair, such as several outlets that were so worn they would not hold a plug as well as the sink stopper handle which just pulled free when I went to use it.  In addition, while I appreciated having a mini-fridge, it to was in need of being repaired as one of the feet were missing.Another area of concern was housekeeping.  I did not get a warm and fuzzy feeling that the room was well cleaned.  There was till evidence of the previous occupants in the room such as bits of trash on the floor, which was obviously not vacuumed.  It always make me suspect when I see that.  As far as the overall property is concerned, it was similar.  The stairwells had a musty odor like the room and the outdoor pool seemed like it had not been cleaned in a while.  One positive, it seemed the lobby had been updated in the recent past.Having said all that, as always, the front desk staff were pleasant and helpful.  It is the one consistent thing I find with most Marriott properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r300249166-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300249166</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard by Marriott at Houston Hobby Airport. This is the closer hotel with reasonable price we stay close to Galveston Island. The lobby are clean and spacious. The registration staff are nice. The rooms are decent but the carpet and furniture are a bit dated. Last time the hotel was remodeled  was 10 years ago otherwise the hotel is fine for the price. One downside the hotel a little noisy since the hotel are hosting family wedding that day.Pros: Affordable, close to the Hobby airport. Small gym onsiteCons: Closed to the highways. Outdated furnitures.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>9190Management, Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard by Marriott at Houston Hobby Airport. This is the closer hotel with reasonable price we stay close to Galveston Island. The lobby are clean and spacious. The registration staff are nice. The rooms are decent but the carpet and furniture are a bit dated. Last time the hotel was remodeled  was 10 years ago otherwise the hotel is fine for the price. One downside the hotel a little noisy since the hotel are hosting family wedding that day.Pros: Affordable, close to the Hobby airport. Small gym onsiteCons: Closed to the highways. Outdated furnitures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r298556192-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298556192</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>A good Place to Stay in South Houston</t>
+  </si>
+  <si>
+    <t>The hotel is rather trendy with a bar and a place to relax in the check-in area. The rooms, the most important part to me, were nice, clear and quite. Nothing special and that is just how I like it with no surprises.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r294112184-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294112184</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Pre-cruise hotel.</t>
+  </si>
+  <si>
+    <t>I stayed here in a suite for 1 night prior to my cruise leaving from Galveston. We had 2 double beds, a sleeper sofa, and they quickly brought a rollaway bed at my request as well as extra towels. All 4 of us stayed in here comfortably. The suite came equipped with a microwave and mini fridge. They do have a limited food and drink menu downstairs and there's a pantry with inexpensive snacks. The shuttle will take you anywhere within a few miles. I was dropped off at Walmart. However when I called for pickup, the guy at the front desk never told the driver I was waiting and I was outside for 40 minutes waiting to be picked up. Other than that, this is a good hotel, only 5 minutes from the airport and about 30 minutes in no traffic to the Port of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed here in a suite for 1 night prior to my cruise leaving from Galveston. We had 2 double beds, a sleeper sofa, and they quickly brought a rollaway bed at my request as well as extra towels. All 4 of us stayed in here comfortably. The suite came equipped with a microwave and mini fridge. They do have a limited food and drink menu downstairs and there's a pantry with inexpensive snacks. The shuttle will take you anywhere within a few miles. I was dropped off at Walmart. However when I called for pickup, the guy at the front desk never told the driver I was waiting and I was outside for 40 minutes waiting to be picked up. Other than that, this is a good hotel, only 5 minutes from the airport and about 30 minutes in no traffic to the Port of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r291394165-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291394165</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Not quite up to par but got the job done</t>
+  </si>
+  <si>
+    <t>I was put up in this hotel by Southwest Airlines because of botched travel. The shuttle van arrived within minutes of bag retrieval and took us to the hotel that is 10 minutes away. The desk clerck got 4 other stranded folks and us checked in with high efficiency. The hotel is an older property and is not quite a well laid out as some of the newer properties. The carpet and the furniture are a bit worn but the beds were comfortable. The rooms were quiet and I slept well so no major complaints.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r280661511-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280661511</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service was very good at check-in and during the stay. The rooms seemed a little dated but the internet and other amenities were just fine. Very functional hotel for the business traveler and close to Hobby Airport. The location is excellent for certain business markets. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r269975245-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269975245</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>1 Week Stay On Business</t>
+  </si>
+  <si>
+    <t>Pros: Excellent staff! Close to the airport. Lots of restaurants within 5-10 driving. Right of highway. Room are very clean and spacious for 1-2 people. Real hair dryer (not a wall mounted one), iron and board. Great shower pressure even on the top floor. Modern HD TV with HD channels. Free Wi-Fi.Cons: Car needed! Not in walking distance of anything. AC unit can be a bit loud, if not used to it, as it kicks on and off.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r269284370-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269284370</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Stay at last "resort "</t>
+  </si>
+  <si>
+    <t>Was booked at hotel by the airline when storms prevented landing at another destination. When calling for pickup at the airport the late night staff denied our reservation &amp; said there was no way to pick us up at the airport.  That's bad news from an airport hotel.   After 40 minutes &amp; 4 phone calls we were picked up. It is a five minute drive. Driver said that he was just told about the pickup.  Also they would comp our breakfast.  This did not happen.   Other customers were given keys to occupied rooms. Took much more time to find unoccupied rooms. It's 1:00 am by now!  The rooms are bare bone compartments to stay for short periods of time.  The bed was hard and uncomfortable.  The worst part was when the cool air stopped blowing from the air conditioner &amp; the fan blew the rest of the night. The room was hot and humid, and I got no sleep that night.   Weather circumstances put me at the hotel this night, but I wouldn't choose to stay here on my own. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Was booked at hotel by the airline when storms prevented landing at another destination. When calling for pickup at the airport the late night staff denied our reservation &amp; said there was no way to pick us up at the airport.  That's bad news from an airport hotel.   After 40 minutes &amp; 4 phone calls we were picked up. It is a five minute drive. Driver said that he was just told about the pickup.  Also they would comp our breakfast.  This did not happen.   Other customers were given keys to occupied rooms. Took much more time to find unoccupied rooms. It's 1:00 am by now!  The rooms are bare bone compartments to stay for short periods of time.  The bed was hard and uncomfortable.  The worst part was when the cool air stopped blowing from the air conditioner &amp; the fan blew the rest of the night. The room was hot and humid, and I got no sleep that night.   Weather circumstances put me at the hotel this night, but I wouldn't choose to stay here on my own. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r268390162-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268390162</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Good and Bad.....</t>
+  </si>
+  <si>
+    <t>Good: The staff at the front desk was very helpful. The shuttle will provide free transportation to a list of nearby restaurants. Nice Courtyard. Shuttle to the airport. Bad: Housekeeping walked into my room twice without knocking. The Hot Tub was not in service. The food as the Cafe left a bit to be desired.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good: The staff at the front desk was very helpful. The shuttle will provide free transportation to a list of nearby restaurants. Nice Courtyard. Shuttle to the airport. Bad: Housekeeping walked into my room twice without knocking. The Hot Tub was not in service. The food as the Cafe left a bit to be desired.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r262359991-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262359991</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Overnight sray</t>
+  </si>
+  <si>
+    <t>The employees were so friendly and helpful. The room clean, neat and a comfortable. The down side was that we requested a room not too far to walk as one in our party has difficulty walkng.  We were given rooms on the main floor which was great, but a long way down the hall.  Also being in an unfamiliar area for the evening the Bristo was not the nicest place to have dinner with family who came by to greet us.  A nice restaurant would be a real asset.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r261558565-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261558565</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Run Down / HORRIBLE Staff</t>
+  </si>
+  <si>
+    <t>Stayed here over the weekend and encountered many maintenance problems with the room.  Shower not draining, toilet not flushing, a/c not working as well as it should, and fridge did not cool.  No towels by pool or hot tub - dirty public areas.  Hotel room was not clean - trash on floor, patio looked like a trash can had been emptied around it, and there was hair all over the shower before I used it.  To make things worse - the night time front desk - African American male - was HORRIBLE! He was rude, played on his cell phone, and told lies!  Long story. Although management helped me out the next day and gave me points - I will avoid this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here over the weekend and encountered many maintenance problems with the room.  Shower not draining, toilet not flushing, a/c not working as well as it should, and fridge did not cool.  No towels by pool or hot tub - dirty public areas.  Hotel room was not clean - trash on floor, patio looked like a trash can had been emptied around it, and there was hair all over the shower before I used it.  To make things worse - the night time front desk - African American male - was HORRIBLE! He was rude, played on his cell phone, and told lies!  Long story. Although management helped me out the next day and gave me points - I will avoid this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r259520010-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259520010</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Can't Always Judge a Place By Its Name</t>
+  </si>
+  <si>
+    <t>Courtyard Marriott always symbolized a hotel of special merit, beyond the average. Most include a wonderful breakfast buffet. Most have courteous staff who have a job position to serve their guests. We did have a viewless room which had a king sized bed. The normal soap, shampoo,  cream rinse, and hand lotion were set out for our use. The room was nothing fancy. It had a rather cool decorating feel. Downstairs a small, very small gift area, sold essentials which might have been forgotten. A bar-type area was set up in the lobby to cater to drinks, which had to be purchased. There was breakfast in the morning, but it was not complimentary. The office staff were cool. Even with a reservation, that guaranteed our room with a credit card, we were not going to be given a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Courtyard Marriott always symbolized a hotel of special merit, beyond the average. Most include a wonderful breakfast buffet. Most have courteous staff who have a job position to serve their guests. We did have a viewless room which had a king sized bed. The normal soap, shampoo,  cream rinse, and hand lotion were set out for our use. The room was nothing fancy. It had a rather cool decorating feel. Downstairs a small, very small gift area, sold essentials which might have been forgotten. A bar-type area was set up in the lobby to cater to drinks, which had to be purchased. There was breakfast in the morning, but it was not complimentary. The office staff were cool. Even with a reservation, that guaranteed our room with a credit card, we were not going to be given a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r253580389-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253580389</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Thank me later</t>
+  </si>
+  <si>
+    <t>I frequently stay at Marriott Hotels so I was very disappointed in this one.  Close to airport, free basic WiFi, clean and staff was friendly.  Those are the only good things about this hotel.  Do not stay here or at the sister property across the field without a rental car.  There are no stores or restaurants within walking distance and no sidewalks.  They do have a shuttle van that will take you to a local restaurant for no fee.  But the lady who drives the van also does other jobs in the hotel and drove so fast we were terrified.  With the exception of the lobby, this hotel is very dated and could use a face-lift.  I went to the little store near the front desk to buy bottled water and the clerk stated that they were out and wouldn't have any delivered until Tuesday.  And there are no soda machines.  Let me get this straight, NO WATER IN THE ENTIRE HOTEL! Unacceptable!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>I frequently stay at Marriott Hotels so I was very disappointed in this one.  Close to airport, free basic WiFi, clean and staff was friendly.  Those are the only good things about this hotel.  Do not stay here or at the sister property across the field without a rental car.  There are no stores or restaurants within walking distance and no sidewalks.  They do have a shuttle van that will take you to a local restaurant for no fee.  But the lady who drives the van also does other jobs in the hotel and drove so fast we were terrified.  With the exception of the lobby, this hotel is very dated and could use a face-lift.  I went to the little store near the front desk to buy bottled water and the clerk stated that they were out and wouldn't have any delivered until Tuesday.  And there are no soda machines.  Let me get this straight, NO WATER IN THE ENTIRE HOTEL! Unacceptable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r252404826-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252404826</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Not the best airport hotel</t>
+  </si>
+  <si>
+    <t>I usually like Courtyard Marriotts but not this one.  I called the hotel when we arrived and they said the shuttle was on its way.  The website says it is minutes away from the airport, well after 45 minutes of waiting, still no shuttle.  So I called again, was told the shuttle was on its way, after 10 minutes of waiting and a different hotel offered to give us a ride to the Courtyard Marriott, the shuttle showed up.  The driver was rude and had his friend hanging out with him.  The ride the next day was no better.  They claim it goes every half an hour, well we waited much longer than that to get back to the airport.  The room was fine, but would not stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>I usually like Courtyard Marriotts but not this one.  I called the hotel when we arrived and they said the shuttle was on its way.  The website says it is minutes away from the airport, well after 45 minutes of waiting, still no shuttle.  So I called again, was told the shuttle was on its way, after 10 minutes of waiting and a different hotel offered to give us a ride to the Courtyard Marriott, the shuttle showed up.  The driver was rude and had his friend hanging out with him.  The ride the next day was no better.  They claim it goes every half an hour, well we waited much longer than that to get back to the airport.  The room was fine, but would not stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r250536187-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250536187</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>not customer service friendly - not looking for business</t>
+  </si>
+  <si>
+    <t>as a platinum member I made reservations for 4 people and wanted to use one of their meeting rooms for 3 hours in the a.m. I confirmed that neither of the rooms were booked and was told regardless of length of use they needed to charge me rack rate which was almost the same cost of the rooms that I had reserved. I did not need anything but the room, no audio visual etc. and was willing to give up the room if they found someone to rent it. No change very poor response not even a price reduction. That is how you lose customers - that is why business close up - I went down the street found a competitor hotel (same class-level) rented the room for 2/3 of the cost and gave them the 4 nights rental as well. I do have a choice so do you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>as a platinum member I made reservations for 4 people and wanted to use one of their meeting rooms for 3 hours in the a.m. I confirmed that neither of the rooms were booked and was told regardless of length of use they needed to charge me rack rate which was almost the same cost of the rooms that I had reserved. I did not need anything but the room, no audio visual etc. and was willing to give up the room if they found someone to rent it. No change very poor response not even a price reduction. That is how you lose customers - that is why business close up - I went down the street found a competitor hotel (same class-level) rented the room for 2/3 of the cost and gave them the 4 nights rental as well. I do have a choice so do you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r242763955-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242763955</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Great stop</t>
+  </si>
+  <si>
+    <t>A convenient location with fine amenities and helpful staffing. A nice easy eatery on the site with reasonable pricing and offerings.  Rooms are clean and the bed is great! The airport shuttle and use for rental car return was excellent.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r242092891-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242092891</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Not up to the usual Mariott standards</t>
+  </si>
+  <si>
+    <t>The Marriott name used to stand for quality of service and excellent design standards. The Houston Hobby Courtyard has neither. During our stay we found that the décor scheme of oranges/rusts/reds and blacks looked like a Halloween costume gone bad. Marriott has dozens of full time interior design staff members, but for this hotel someone has apparently just copied the design schemes from the Roadways and Motel 6's of the world. The elegance was gone. As to the quality of our stay, we found that our walls were so thin and un-insulated that the next door room full of girls that held a giggling contest until 5 AM kept us awake most of the night. In the morning when we expressed our dissatisfaction with the lack of sound insulation in the walls, we were told "It's too late. You should have complained last night." No "I'm sorry", no "Is there anything we can do to redeem the quality of your stay?" Most of the public doesn't know that in the old days the pool attendant at a Marriott had the empowerment to comp a room if he fielded a serious complaint. Obviously that's not the case today. We didn't expect our room comped, but an offer of a free breakfast might have soothed our feelings a little. After all, the giggling girls were not responsible for the poor quality of the sound insulation in the walls. Courtyard by Marriott was!...The Marriott name used to stand for quality of service and excellent design standards. The Houston Hobby Courtyard has neither. During our stay we found that the décor scheme of oranges/rusts/reds and blacks looked like a Halloween costume gone bad. Marriott has dozens of full time interior design staff members, but for this hotel someone has apparently just copied the design schemes from the Roadways and Motel 6's of the world. The elegance was gone. As to the quality of our stay, we found that our walls were so thin and un-insulated that the next door room full of girls that held a giggling contest until 5 AM kept us awake most of the night. In the morning when we expressed our dissatisfaction with the lack of sound insulation in the walls, we were told "It's too late. You should have complained last night." No "I'm sorry", no "Is there anything we can do to redeem the quality of your stay?" Most of the public doesn't know that in the old days the pool attendant at a Marriott had the empowerment to comp a room if he fielded a serious complaint. Obviously that's not the case today. We didn't expect our room comped, but an offer of a free breakfast might have soothed our feelings a little. After all, the giggling girls were not responsible for the poor quality of the sound insulation in the walls. Courtyard by Marriott was! The hotel is proud to offer free round trip shuttles to nearby restaurants. Sounds good, doesn't it? Well look at the fine print and find out that you usually have to stand around 45 minutes or more until the airport shuttles have been satisfied. Not all of us are comfortable eating after 8:30 at night, are we? The coup de grace occurred when I bought two bottles of water from the small shop at an outrageous price of $9 and took them back to our room. My wife was incensed by the price and insisted that I take them back. The front desk refused to accept them despite the fact that they were OBVIOUSLY unopened. I asked to speak to the manager and the young man who came from the back was not only indifferent but downright rude to me. Maybe it's a Houston thing, but it's certainly not a Marriott thing. Shame on Marriott for allowing such a hotel to be in their system.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>The Marriott name used to stand for quality of service and excellent design standards. The Houston Hobby Courtyard has neither. During our stay we found that the décor scheme of oranges/rusts/reds and blacks looked like a Halloween costume gone bad. Marriott has dozens of full time interior design staff members, but for this hotel someone has apparently just copied the design schemes from the Roadways and Motel 6's of the world. The elegance was gone. As to the quality of our stay, we found that our walls were so thin and un-insulated that the next door room full of girls that held a giggling contest until 5 AM kept us awake most of the night. In the morning when we expressed our dissatisfaction with the lack of sound insulation in the walls, we were told "It's too late. You should have complained last night." No "I'm sorry", no "Is there anything we can do to redeem the quality of your stay?" Most of the public doesn't know that in the old days the pool attendant at a Marriott had the empowerment to comp a room if he fielded a serious complaint. Obviously that's not the case today. We didn't expect our room comped, but an offer of a free breakfast might have soothed our feelings a little. After all, the giggling girls were not responsible for the poor quality of the sound insulation in the walls. Courtyard by Marriott was!...The Marriott name used to stand for quality of service and excellent design standards. The Houston Hobby Courtyard has neither. During our stay we found that the décor scheme of oranges/rusts/reds and blacks looked like a Halloween costume gone bad. Marriott has dozens of full time interior design staff members, but for this hotel someone has apparently just copied the design schemes from the Roadways and Motel 6's of the world. The elegance was gone. As to the quality of our stay, we found that our walls were so thin and un-insulated that the next door room full of girls that held a giggling contest until 5 AM kept us awake most of the night. In the morning when we expressed our dissatisfaction with the lack of sound insulation in the walls, we were told "It's too late. You should have complained last night." No "I'm sorry", no "Is there anything we can do to redeem the quality of your stay?" Most of the public doesn't know that in the old days the pool attendant at a Marriott had the empowerment to comp a room if he fielded a serious complaint. Obviously that's not the case today. We didn't expect our room comped, but an offer of a free breakfast might have soothed our feelings a little. After all, the giggling girls were not responsible for the poor quality of the sound insulation in the walls. Courtyard by Marriott was! The hotel is proud to offer free round trip shuttles to nearby restaurants. Sounds good, doesn't it? Well look at the fine print and find out that you usually have to stand around 45 minutes or more until the airport shuttles have been satisfied. Not all of us are comfortable eating after 8:30 at night, are we? The coup de grace occurred when I bought two bottles of water from the small shop at an outrageous price of $9 and took them back to our room. My wife was incensed by the price and insisted that I take them back. The front desk refused to accept them despite the fact that they were OBVIOUSLY unopened. I asked to speak to the manager and the young man who came from the back was not only indifferent but downright rude to me. Maybe it's a Houston thing, but it's certainly not a Marriott thing. Shame on Marriott for allowing such a hotel to be in their system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r241032087-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241032087</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and the beds were comfortable. The bistro served up very good food and the location was close to the airport. The staff was by far and away the best in the business. Porscha Austin was very pleasant and went the extra mile with a smile. We stayed there on our way out on a cruise from Houston, we stayed Ed there on the way back, both times were excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r235535225-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235535225</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Short stay after international flight</t>
+  </si>
+  <si>
+    <t>My stay here was brief, but it was just enough to get recharged before my next flight back home. The staff was friendly, and checed me in at 2:00 am with no problems. The room was comfortable and clean, and the hotel shuttle dropped me off at Hobby.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r233675676-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233675676</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Comfortable near Hobby Airport</t>
+  </si>
+  <si>
+    <t>Hotel is not outstanding but is clean and comfortable and only minutes from Houston Hobby Airport.  Staff is very friendly and helpful.  Room was clean with  no problems.  Only drawback was that the hotel chains off part of their parking lot at night making it a bit difficult to get a parking spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Lauren N, Guest Services at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded October 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is not outstanding but is clean and comfortable and only minutes from Houston Hobby Airport.  Staff is very friendly and helpful.  Room was clean with  no problems.  Only drawback was that the hotel chains off part of their parking lot at night making it a bit difficult to get a parking spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r233324606-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233324606</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>malfunctioning fire alarm disrupted my sleep</t>
+  </si>
+  <si>
+    <t>The location of this hotel is convenient when you have an early flight but unfortunately I did not sleep much as the smoke alarm blinked throughout the night.  At one point I thought a UFO was landing in my room.  Very annoying.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Lauren N, Guest Services at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>The location of this hotel is convenient when you have an early flight but unfortunately I did not sleep much as the smoke alarm blinked throughout the night.  At one point I thought a UFO was landing in my room.  Very annoying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r220055772-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220055772</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Hobby @ Houston Marriott</t>
+  </si>
+  <si>
+    <t>What a welcoming and pleasant hotel for our pleasure/ business trip to Houston.  The staff from the reception desk, to shuttle drivers, to restaurant wait staff , bartenders and housekeepers were all courteous, helpful and so pleasant.The gym was well equiped with sufficent number of treadmills, elipticals and dumbbells.  The pool and hot tub was nice.We hope our meetings will be held here again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tristan D, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>What a welcoming and pleasant hotel for our pleasure/ business trip to Houston.  The staff from the reception desk, to shuttle drivers, to restaurant wait staff , bartenders and housekeepers were all courteous, helpful and so pleasant.The gym was well equiped with sufficent number of treadmills, elipticals and dumbbells.  The pool and hot tub was nice.We hope our meetings will be held here again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r219485297-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219485297</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>very close to Hobby Airport</t>
+  </si>
+  <si>
+    <t>Happy with our overnight stay.  Freeway traffic was a bit loud. Front desk was helpful.Friendly shuttle operators.  Enjoyed the exercise room. Outdoor pool was clean. Only complaint was the uncomfortable pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Happy with our overnight stay.  Freeway traffic was a bit loud. Front desk was helpful.Friendly shuttle operators.  Enjoyed the exercise room. Outdoor pool was clean. Only complaint was the uncomfortable pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r215454231-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215454231</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Not worth the price!</t>
+  </si>
+  <si>
+    <t>My husband, 4yo son, &amp; myself stayed here for one night on 7/13/14. The room was fairly clean and the staff was nice enough, but I just can't believe there is NO FREE BREAKFAST! I've stayed at many hotels and yours was the most expensive, so I expected a nice, warm breakfast in the morning. There's a bistro to buy your breakfast, but at $159/night, you expect to get at least some cereal or something. The bed was hard as a rock, but the bedding was nice and soft. All in all, it was decent but not worth the high price.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, 4yo son, &amp; myself stayed here for one night on 7/13/14. The room was fairly clean and the staff was nice enough, but I just can't believe there is NO FREE BREAKFAST! I've stayed at many hotels and yours was the most expensive, so I expected a nice, warm breakfast in the morning. There's a bistro to buy your breakfast, but at $159/night, you expect to get at least some cereal or something. The bed was hard as a rock, but the bedding was nice and soft. All in all, it was decent but not worth the high price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r204927368-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204927368</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Property and people great; poor overall value</t>
+  </si>
+  <si>
+    <t>First and foremost, the property itself and the staff were top notch.  Lauren at the front desk was friendly, efficient and most importantly knowledgeable about local places to eat and places to visit before starting my business meeting late the next day.  She suggested the Houston Space Center (I'm a science nerd) and some nice places to eat near the hotel.
+This Courtyard has switched to the Marriott "Bistro" concept which, as I've said in numerous reviews, shafts the Marriott loyalty premium program members. (e.g. Fairfield Inns have a free breakfast, full service Marriott properties have a concierge lounge with breakfast).  I did eat twice at the Bistro out of convenience and both experiences were very good.
+I had an interior room on the 2nd floor.  The floor was quiet and room was comfortable, however the HVAC unit in the room was rather noisy during operation.  It woke me up a couple of times at night during my stay when it started. 
+However, the value of the hotel was extremely poor.  Apparently there was a huge conference in town (Offshore Technical Conference, OTC) and ALL of the hotels in the area skyrocketed their prices to astronomical rates.  The Courtyard was nearly $300/night while the full-service Marriott a few blocks away was over $450/night.  Being a frequent traveler and a Marriott premium member, near-$300/night for a Courtyard property is brutal, especially if you Google the "regular rates" around $150/night for the...First and foremost, the property itself and the staff were top notch.  Lauren at the front desk was friendly, efficient and most importantly knowledgeable about local places to eat and places to visit before starting my business meeting late the next day.  She suggested the Houston Space Center (I'm a science nerd) and some nice places to eat near the hotel.This Courtyard has switched to the Marriott "Bistro" concept which, as I've said in numerous reviews, shafts the Marriott loyalty premium program members. (e.g. Fairfield Inns have a free breakfast, full service Marriott properties have a concierge lounge with breakfast).  I did eat twice at the Bistro out of convenience and both experiences were very good.I had an interior room on the 2nd floor.  The floor was quiet and room was comfortable, however the HVAC unit in the room was rather noisy during operation.  It woke me up a couple of times at night during my stay when it started. However, the value of the hotel was extremely poor.  Apparently there was a huge conference in town (Offshore Technical Conference, OTC) and ALL of the hotels in the area skyrocketed their prices to astronomical rates.  The Courtyard was nearly $300/night while the full-service Marriott a few blocks away was over $450/night.  Being a frequent traveler and a Marriott premium member, near-$300/night for a Courtyard property is brutal, especially if you Google the "regular rates" around $150/night for the property. The lesson learned here was mine to learn: Insure there are no conferences in the area if you have a choice when your client wants you on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, Guest Services Specialist at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>First and foremost, the property itself and the staff were top notch.  Lauren at the front desk was friendly, efficient and most importantly knowledgeable about local places to eat and places to visit before starting my business meeting late the next day.  She suggested the Houston Space Center (I'm a science nerd) and some nice places to eat near the hotel.
+This Courtyard has switched to the Marriott "Bistro" concept which, as I've said in numerous reviews, shafts the Marriott loyalty premium program members. (e.g. Fairfield Inns have a free breakfast, full service Marriott properties have a concierge lounge with breakfast).  I did eat twice at the Bistro out of convenience and both experiences were very good.
+I had an interior room on the 2nd floor.  The floor was quiet and room was comfortable, however the HVAC unit in the room was rather noisy during operation.  It woke me up a couple of times at night during my stay when it started. 
+However, the value of the hotel was extremely poor.  Apparently there was a huge conference in town (Offshore Technical Conference, OTC) and ALL of the hotels in the area skyrocketed their prices to astronomical rates.  The Courtyard was nearly $300/night while the full-service Marriott a few blocks away was over $450/night.  Being a frequent traveler and a Marriott premium member, near-$300/night for a Courtyard property is brutal, especially if you Google the "regular rates" around $150/night for the...First and foremost, the property itself and the staff were top notch.  Lauren at the front desk was friendly, efficient and most importantly knowledgeable about local places to eat and places to visit before starting my business meeting late the next day.  She suggested the Houston Space Center (I'm a science nerd) and some nice places to eat near the hotel.This Courtyard has switched to the Marriott "Bistro" concept which, as I've said in numerous reviews, shafts the Marriott loyalty premium program members. (e.g. Fairfield Inns have a free breakfast, full service Marriott properties have a concierge lounge with breakfast).  I did eat twice at the Bistro out of convenience and both experiences were very good.I had an interior room on the 2nd floor.  The floor was quiet and room was comfortable, however the HVAC unit in the room was rather noisy during operation.  It woke me up a couple of times at night during my stay when it started. However, the value of the hotel was extremely poor.  Apparently there was a huge conference in town (Offshore Technical Conference, OTC) and ALL of the hotels in the area skyrocketed their prices to astronomical rates.  The Courtyard was nearly $300/night while the full-service Marriott a few blocks away was over $450/night.  Being a frequent traveler and a Marriott premium member, near-$300/night for a Courtyard property is brutal, especially if you Google the "regular rates" around $150/night for the property. The lesson learned here was mine to learn: Insure there are no conferences in the area if you have a choice when your client wants you on site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r204884704-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204884704</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>One night stay before flight</t>
+  </si>
+  <si>
+    <t>Excellent hotel!  There were 4 friends on a girls trip and had just come off a cruise during the weekend of the oil spill.  We were exhausted when we got to the hotel and we were early so our rooms weren't ready.  They recommended a great restaurant and shuttled us there and back.  We had requested rooms next to each other with balconies and when we returned from eating the rooms were exactly what we had asked for.  Rooms were good sized, clean and comfortable.  Would highly recommend!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r204044288-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204044288</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Hobby Courtyard</t>
+  </si>
+  <si>
+    <t>Although the computer system was having problems, the Bistro was still able to provide dinner and breakfast with little or no delays. The staff was working as hard and quickly as they could. I even think the desk crew pitched in to help too.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r199639834-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199639834</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Amazingly surprised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At first, when arrived at the hotel it was not what we expected. But don't judge by location because as soon as you go inside, fabulous!!!. We stayed 3 nights in a suite, rooms clean, friendly staff and very affordable.  Surprisingly quiet.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r197601862-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197601862</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel before cruising!</t>
+  </si>
+  <si>
+    <t>The service at this hotel was amazing! We were about to load our car when we received a call that our cruise was delayed due to weather. Lauren, at the front desk, heard the conversation and immediately offered a late check-out if we needed it. We had to wrap all of our luggage in plastic due to pouring rain and immediately everyone at the front desk jumped in to help with garbage bags and tape! Everyone was extremely friendly and helpful. The location is perfect for pre-cruise overnight stays and we were extremely pleased with the price. The hotel was very clean and the food was great. The staff helped put a smile on our faces after a disappointing delay! MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded March 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2014</t>
+  </si>
+  <si>
+    <t>The service at this hotel was amazing! We were about to load our car when we received a call that our cruise was delayed due to weather. Lauren, at the front desk, heard the conversation and immediately offered a late check-out if we needed it. We had to wrap all of our luggage in plastic due to pouring rain and immediately everyone at the front desk jumped in to help with garbage bags and tape! Everyone was extremely friendly and helpful. The location is perfect for pre-cruise overnight stays and we were extremely pleased with the price. The hotel was very clean and the food was great. The staff helped put a smile on our faces after a disappointing delay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r197250344-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197250344</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very helpful and friend staff made this stay very nice indeed.  We arrived late (or early depending on your view of time, 1am)  and having a well stocked pantry helps at that hour when all else is closed. Room was clean and the beds felt great.  Low noise and the constant fan being able to run makes for a good sleep session.  The free Wifi worked good and the extra $ spent on the enhanced wifi was worth it. Thanks again I'll make sure to stay there when we return.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r195238596-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195238596</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed here because I had no where else to go. A friendly gentlemen at the front desk was very helpful. His name I believe was Calvin. He was very attentive and very generous in making sure I had everything I needed even though he had been injured recently. He helped me get in touch with a cab driver who was very nice and took me everywhere that the shuttle did not provide transportation to. The shuttle driver (Aurora) took me to eat and had very good conversation. Hotel was very clean and quiet during my 2 days there. Calvin made the best of the situation for me and should be deemed "Ambassador as he knows all of the hot spots and good places around Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I stayed here because I had no where else to go. A friendly gentlemen at the front desk was very helpful. His name I believe was Calvin. He was very attentive and very generous in making sure I had everything I needed even though he had been injured recently. He helped me get in touch with a cab driver who was very nice and took me everywhere that the shuttle did not provide transportation to. The shuttle driver (Aurora) took me to eat and had very good conversation. Hotel was very clean and quiet during my 2 days there. Calvin made the best of the situation for me and should be deemed "Ambassador as he knows all of the hot spots and good places around Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r194461317-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194461317</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Friendly and very accommodating service!</t>
+  </si>
+  <si>
+    <t>The room was clean and really quite nice. The bathroom was very clean. That is not what set this hotel apart in our minds...it was the service. Because of the unexpected influx of people from an early arriving cruise ship (which we were on) the hotel shuttle was running very slowly. The manager, Alberto Hernandez, saw that we had been waiting a while and decided to personally shuttle us to a long term parking lot to retrieve our car. He had plenty to do, i'm sure, but he chose to serve us in this way. And, he did it with a very pleasant attitude and a beautiful smile!! It is wonderfully refreshing to get this kind of service. Thank you, Alberto!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and really quite nice. The bathroom was very clean. That is not what set this hotel apart in our minds...it was the service. Because of the unexpected influx of people from an early arriving cruise ship (which we were on) the hotel shuttle was running very slowly. The manager, Alberto Hernandez, saw that we had been waiting a while and decided to personally shuttle us to a long term parking lot to retrieve our car. He had plenty to do, i'm sure, but he chose to serve us in this way. And, he did it with a very pleasant attitude and a beautiful smile!! It is wonderfully refreshing to get this kind of service. Thank you, Alberto!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r193311600-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193311600</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Nothing great, nothing bad</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after returning to Bayport Cruise Terminal early.  Room was paid for by Princess Cruises.  Comfortable room and beds.  Room temperature was easily adjusted to a cool 63 degrees.  Thermostat limiter easy to override, typical Inncom unit.  Shower pressure was great, with plenty of hot and cold water.  Front desk staff including the General Manager were very friendly and welcoming.  I was a bit concerned about the fencing and gates for the parking lot.  (Never a good sign!)  No problems with overnight parking.  True, not many "upscale" restaurants, but the shuttle quickly whisked our party of eight to a nearby Pappa's BBQ for a hearty lunch.  The shuttle appeared quite new.I would stay here again, but be sure to hide any and all valuables when parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded February 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after returning to Bayport Cruise Terminal early.  Room was paid for by Princess Cruises.  Comfortable room and beds.  Room temperature was easily adjusted to a cool 63 degrees.  Thermostat limiter easy to override, typical Inncom unit.  Shower pressure was great, with plenty of hot and cold water.  Front desk staff including the General Manager were very friendly and welcoming.  I was a bit concerned about the fencing and gates for the parking lot.  (Never a good sign!)  No problems with overnight parking.  True, not many "upscale" restaurants, but the shuttle quickly whisked our party of eight to a nearby Pappa's BBQ for a hearty lunch.  The shuttle appeared quite new.I would stay here again, but be sure to hide any and all valuables when parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r190185810-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190185810</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Great Stay for Business</t>
+  </si>
+  <si>
+    <t>Stayed here after flying into Houston.  A very good stay typical of other Courtyard properties.  Entrance was somewhat difficult to find since it is not accessible from Gulf Freeway, but Gulf Freeway does make this hotel very accessible to shopping and dining in the area.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r189915761-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189915761</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r189588010-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189588010</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I stayed here for a short time. The lady at the desk was so welcoming and courteous.  I had got in around 2 a.m. and she was able to add my awards points, adjust my booking due to a computer area from a third party.  I slept so good and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded January 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a short time. The lady at the desk was so welcoming and courteous.  I had got in around 2 a.m. and she was able to add my awards points, adjust my booking due to a computer area from a third party.  I slept so good and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r185808627-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185808627</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Great hotel...not a great area!</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful - a very updated Courtyard.  However, the area is not the best.  Very hard to find places to eat.  Needed to drive a good 25 - 30 minutes to be in an area I considered safe.  The hotel had a great breakfast for a reasonable price and the staff was helpful.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r184579393-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184579393</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>our stay was very pleasant!</t>
+  </si>
+  <si>
+    <t>We always stay here when visiting Houston, Texas with our children or alone;  Our stay is always pleasant, The staff is very friendly, the housekeeping is very professional and assertive.  Would stay there again.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r179133762-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179133762</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>What a disappointing experience!</t>
+  </si>
+  <si>
+    <t>I was going to book at the Marriott just down the street but decided to save a little money - instead of $199 was told $150 for this one - I thought great it's only a slight step down - or so I thought.  This is a glorified Motel 6 and not worthy of $159 (note they threw another $9 on it) place!  No room servicestinky hallwaystoilet won't stop flushing on it's ownthermostat doesn't work rightI am just disgusted that I am paying so much for this place!I don't know if all courtyards are like this but I will definitely not be willing to try one ever again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>I was going to book at the Marriott just down the street but decided to save a little money - instead of $199 was told $150 for this one - I thought great it's only a slight step down - or so I thought.  This is a glorified Motel 6 and not worthy of $159 (note they threw another $9 on it) place!  No room servicestinky hallwaystoilet won't stop flushing on it's ownthermostat doesn't work rightI am just disgusted that I am paying so much for this place!I don't know if all courtyards are like this but I will definitely not be willing to try one ever again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r175030624-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175030624</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>We arrived late for a short layover stay. The staff was great in expediting our check in .Great room and great location close to Hobby Airport.Very impressed with staff.Shuttle service was quick for pickup as well as quick on drop off early in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>We arrived late for a short layover stay. The staff was great in expediting our check in .Great room and great location close to Hobby Airport.Very impressed with staff.Shuttle service was quick for pickup as well as quick on drop off early in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r159139271-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159139271</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>decent property</t>
+  </si>
+  <si>
+    <t>This is a decent courtyard, older style but undergoing some renovations it does appear.The hotel is right off 45 and very close to Hobby Airport. The area surrounding is very questionable and sketchy at times. There is a taco cabana close, but walking isn't advised since the property is fenced in and restricted for vehicles. The property fenced in is a bit concerning, but no issues with security or anything else.cheap prices when i booked and nice clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>This is a decent courtyard, older style but undergoing some renovations it does appear.The hotel is right off 45 and very close to Hobby Airport. The area surrounding is very questionable and sketchy at times. There is a taco cabana close, but walking isn't advised since the property is fenced in and restricted for vehicles. The property fenced in is a bit concerning, but no issues with security or anything else.cheap prices when i booked and nice clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r154199054-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154199054</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Not a good value---stay at a Staybridge</t>
+  </si>
+  <si>
+    <t>March 4th. Could not believe the expensive dinner in the lobby---$33.00 for a two hamburgers. glass of wine and a beer. Then: over $20.00 for breakfast! Room dated and very small. Toliet had to be flushed by removing lid on back. We could have had a large one bedroom suite with free breakfast and light dinner for less money at The Staybridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded June 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2013</t>
+  </si>
+  <si>
+    <t>March 4th. Could not believe the expensive dinner in the lobby---$33.00 for a two hamburgers. glass of wine and a beer. Then: over $20.00 for breakfast! Room dated and very small. Toliet had to be flushed by removing lid on back. We could have had a large one bedroom suite with free breakfast and light dinner for less money at The Staybridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r152141891-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152141891</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Nice stay friendly staff</t>
+  </si>
+  <si>
+    <t>Staff was friendly and efficient.  Room was clean and comfortable.  For a beer in the evening and a bagel in the morning, the lobby restaurant worked very well.  I would have no problems staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Staff was friendly and efficient.  Room was clean and comfortable.  For a beer in the evening and a bagel in the morning, the lobby restaurant worked very well.  I would have no problems staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r147808730-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147808730</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>any food YOU PAY</t>
+  </si>
+  <si>
+    <t>This was the last night of my week long trip. Imagine the surprise in finding there is not morsel of food not even coffee without paying. They offer a "bistro" with an extremely limited menu.You either eat in the very public lobby or take it up to your room.The hotel is quite convenient to the airport. Room was average. Staff did the minimal. There is another Marriott next door so go to the second not the first.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r146673946-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146673946</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott on a trip to Houston for which we did not expect to have a car. We ended up having one and it can be a little tricky to find if you do not just take Monroe to the freeway and head south.  They were friendly and helpful.  The Internet was free in spite of receiving notice upon sign in that there would be a charge.  You should probably check as we were told it was a promotion.  It is fairly standard Marriott and the beds were comfortable.  On the eighth floor we had no trouble with freeway noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r140032564-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140032564</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Our US Trip begins here</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a night upon landing in USA. Hotel is nice and comfy.  However for one who is used to the pampering in Indian Hotels, this is a self service hotel like any other US Hotel.  Breakfast is highly limited for Vegetarians. People are friendly. Very close to the Airport and hence ideal for those waiting to catch a flight.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r136819613-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136819613</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Strongly recommended!</t>
+  </si>
+  <si>
+    <t>Modern, clean, efficient, quiet, helpul &amp; friendly staff, close to HOU airport (free shuttle 24/7)...no complaints whatsoever: a really realxing night/morning after our 24h long trip from Italy.Special thanks for the nice lady at front desk desk (10 Aug. 02:00) and friendly guy at the breakfast counter (10 Aug. 10:00)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r136798825-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136798825</t>
+  </si>
+  <si>
+    <t>Nice hotel and staff, worst mattress in years!</t>
+  </si>
+  <si>
+    <t>Since I didn't want to fight the rush hour traffic and given the the Marriott was booked, I chose to stay at this Courtyard the night before my return flight home.  Never again.The hotel is in great condition, it has been recently renovated, has the Bistro restaurant which served me a nice sandwich for supper at a decent price.  The room was very clean and the staff were all full of smiles.In renovating the hotel they must have run out of money for mattresses.  The one I had in my room was simply awful.  It was hard, sloped in the middle and towards the front of the headboard and I awoke with a backache.  Despite my request for a feather free room the pillows were probably filled will down as I was sneezing too by morning.  Room 118.Since I am a lifetime Platinum with Marriott I will contact their Corporate offices as well.This hotel will be placed on my "do not stay again" list.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Since I didn't want to fight the rush hour traffic and given the the Marriott was booked, I chose to stay at this Courtyard the night before my return flight home.  Never again.The hotel is in great condition, it has been recently renovated, has the Bistro restaurant which served me a nice sandwich for supper at a decent price.  The room was very clean and the staff were all full of smiles.In renovating the hotel they must have run out of money for mattresses.  The one I had in my room was simply awful.  It was hard, sloped in the middle and towards the front of the headboard and I awoke with a backache.  Despite my request for a feather free room the pillows were probably filled will down as I was sneezing too by morning.  Room 118.Since I am a lifetime Platinum with Marriott I will contact their Corporate offices as well.This hotel will be placed on my "do not stay again" list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r130872530-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130872530</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Nice rooms, very spacious.</t>
+  </si>
+  <si>
+    <t>We stayed here one weekend for a staycation with our kids in a room with 2 beds , which was spacious and clean. The pool was also nice and clean for the kids. And they were very accomodating about cleaning our room and leaving fresh towels if we liked. Wonderful hotel nice location near hobby airport . And also close to 45 easy access to rest of city.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded June 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here one weekend for a staycation with our kids in a room with 2 beds , which was spacious and clean. The pool was also nice and clean for the kids. And they were very accomodating about cleaning our room and leaving fresh towels if we liked. Wonderful hotel nice location near hobby airport . And also close to 45 easy access to rest of city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r130672407-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130672407</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Rims &amp; Tires Stolen!!</t>
+  </si>
+  <si>
+    <t>We chose this hotel as it was close to Hobby, however that was only good point. Upon arrival we noticed it was in a bad area since entire hotel is surrounded by iron fence with key entry gate. I booked the park &amp; fly room rates to leave my vehicle for our flight. The staff even made me move my Cadillac Escalade to the first parking spot 20' directly at the front entrance under security light. Upon return to the hotel we noticed that our rear two rims &amp; tires were stolen. Really!! Right under their noses and directly in line of site from the booking counters, the staff indicated no one saw anything. To make matters worse, we were stranded with absolutely no help from the staff and was told they were not going to pay for anything or even consider reimbursement for my stay. Told it was pretty much my problem....Thank God for onstar otherwise I would still be sitting in their gated parking lot with my entire family and bags in hand. If you want good advice choose another hotel!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded June 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2012</t>
+  </si>
+  <si>
+    <t>We chose this hotel as it was close to Hobby, however that was only good point. Upon arrival we noticed it was in a bad area since entire hotel is surrounded by iron fence with key entry gate. I booked the park &amp; fly room rates to leave my vehicle for our flight. The staff even made me move my Cadillac Escalade to the first parking spot 20' directly at the front entrance under security light. Upon return to the hotel we noticed that our rear two rims &amp; tires were stolen. Really!! Right under their noses and directly in line of site from the booking counters, the staff indicated no one saw anything. To make matters worse, we were stranded with absolutely no help from the staff and was told they were not going to pay for anything or even consider reimbursement for my stay. Told it was pretty much my problem....Thank God for onstar otherwise I would still be sitting in their gated parking lot with my entire family and bags in hand. If you want good advice choose another hotel!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r129863585-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129863585</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>The hotel staff is courtious and friendly. The shuttle service is free and the drivers are friendly. They will even suggest a nice place to eat at a nearby resturant. The gym is adiquate but small and there is a nice small pool to swim and relax indoors. The rooms are clean and comfortable. If you do forget to bring a laptop computer or a tablet (like I did) there are computer provided and the internet connection is decent. This is a nice hotel for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff is courtious and friendly. The shuttle service is free and the drivers are friendly. They will even suggest a nice place to eat at a nearby resturant. The gym is adiquate but small and there is a nice small pool to swim and relax indoors. The rooms are clean and comfortable. If you do forget to bring a laptop computer or a tablet (like I did) there are computer provided and the internet connection is decent. This is a nice hotel for an overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r128626164-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128626164</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Staff and service was great. Really loved the shuttle service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff and service was great. Really loved the shuttle service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r126748831-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126748831</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Nice except for the construction noise at 7am</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel down by Hobby airport in March 2012 for business. I can't remember the room number - but I do remember that it was located right next to another room being renovated (sticky plastic on carpet outside door adjacent to mine). At 7am the next morning (which was fortunately 15 minutes after I woke up), I began to hear loud construction noises from the room next to mine (electric drills, hammering, etc.). Aside from that annoyance, the hotel is actually quite nice. The lobby is renovated into the new Courtyard style - which includes a bar / coffee station. This was nice since I was travelling with two co-workers as well and we were able to go relax in the lobby late at night and enjoy a drink while watching a basketball game.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel down by Hobby airport in March 2012 for business. I can't remember the room number - but I do remember that it was located right next to another room being renovated (sticky plastic on carpet outside door adjacent to mine). At 7am the next morning (which was fortunately 15 minutes after I woke up), I began to hear loud construction noises from the room next to mine (electric drills, hammering, etc.). Aside from that annoyance, the hotel is actually quite nice. The lobby is renovated into the new Courtyard style - which includes a bar / coffee station. This was nice since I was travelling with two co-workers as well and we were able to go relax in the lobby late at night and enjoy a drink while watching a basketball game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r124906766-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124906766</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>I suggest you avoid this hotel at least for a while...</t>
+  </si>
+  <si>
+    <t>I stayed at the CY Hobby on February 16, 2012 and I think I was in room 142.
+The hotel is going through construction right now and it is causing some very large problems that they are trying to limit the disruption. That being said, I would not choose to stay at this hotel again. 
+Pros: 
+1. Close to Hobby airport. Less than 5 mins to drop off a rental car.
+2. Bed and pillows were pretty comfy.
+3. Room was recently remodeled. 
+4. Staff seemed apologetic to the current state of the hotel
+5. Quiet for a being so close to the highway and airport.
+Cons - Hotel: 
+1. Construction is reaking havoc on hotel operations:  Check-In was in a conference room, Gym relocated to a dimly lit room, getting from one side of the hotel to the other required going outside.
+2. Recently remodeled room was less than impressive. The AC unit was very loud and would NOT shut off at all. Mirrored closet didn't have door handles to open the doors. Room was very small. Hot water took forever to come on. 
+3. Parking is very limited. Most of the parking is in front of the building which is very inconvenient considering you cannot enter the hotel in the front of the building. You have to enter the side or back of the building.
+4. Room internet was very slow.
+5. Only one working ice machine in...I stayed at the CY Hobby on February 16, 2012 and I think I was in room 142.The hotel is going through construction right now and it is causing some very large problems that they are trying to limit the disruption. That being said, I would not choose to stay at this hotel again. Pros: 1. Close to Hobby airport. Less than 5 mins to drop off a rental car.2. Bed and pillows were pretty comfy.3. Room was recently remodeled. 4. Staff seemed apologetic to the current state of the hotel5. Quiet for a being so close to the highway and airport.Cons - Hotel: 1. Construction is reaking havoc on hotel operations:  Check-In was in a conference room, Gym relocated to a dimly lit room, getting from one side of the hotel to the other required going outside.2. Recently remodeled room was less than impressive. The AC unit was very loud and would NOT shut off at all. Mirrored closet didn't have door handles to open the doors. Room was very small. Hot water took forever to come on. 3. Parking is very limited. Most of the parking is in front of the building which is very inconvenient considering you cannot enter the hotel in the front of the building. You have to enter the side or back of the building.4. Room internet was very slow.5. Only one working ice machine in the hotel and they could not tell me exactly where it was.Cons - Location:1. Scary neighborhood. Enough so that they have the parking lot gated off but apparently not scary enough that they ever lowered the gates! Makes you feel really safe.2. Difficult to get to if you are not familiar with the area. It is a "You can see it but cannot get there from here," situation. It is located on a one-way access road that runs beside the highway. You need to exit the highway to the north of the hotel to get there or circle around on a different road to hit the access road.It might be a better hotel when all of the construction is complete, but I was in a new room that still had lots of problems.  No matter how much construction they do, it will not change the neighborhood. Hopefully their attitude toward their guests safety will change.I am a loyal Marriott member and I wont be back to your hotel. Sorry...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded February 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the CY Hobby on February 16, 2012 and I think I was in room 142.
+The hotel is going through construction right now and it is causing some very large problems that they are trying to limit the disruption. That being said, I would not choose to stay at this hotel again. 
+Pros: 
+1. Close to Hobby airport. Less than 5 mins to drop off a rental car.
+2. Bed and pillows were pretty comfy.
+3. Room was recently remodeled. 
+4. Staff seemed apologetic to the current state of the hotel
+5. Quiet for a being so close to the highway and airport.
+Cons - Hotel: 
+1. Construction is reaking havoc on hotel operations:  Check-In was in a conference room, Gym relocated to a dimly lit room, getting from one side of the hotel to the other required going outside.
+2. Recently remodeled room was less than impressive. The AC unit was very loud and would NOT shut off at all. Mirrored closet didn't have door handles to open the doors. Room was very small. Hot water took forever to come on. 
+3. Parking is very limited. Most of the parking is in front of the building which is very inconvenient considering you cannot enter the hotel in the front of the building. You have to enter the side or back of the building.
+4. Room internet was very slow.
+5. Only one working ice machine in...I stayed at the CY Hobby on February 16, 2012 and I think I was in room 142.The hotel is going through construction right now and it is causing some very large problems that they are trying to limit the disruption. That being said, I would not choose to stay at this hotel again. Pros: 1. Close to Hobby airport. Less than 5 mins to drop off a rental car.2. Bed and pillows were pretty comfy.3. Room was recently remodeled. 4. Staff seemed apologetic to the current state of the hotel5. Quiet for a being so close to the highway and airport.Cons - Hotel: 1. Construction is reaking havoc on hotel operations:  Check-In was in a conference room, Gym relocated to a dimly lit room, getting from one side of the hotel to the other required going outside.2. Recently remodeled room was less than impressive. The AC unit was very loud and would NOT shut off at all. Mirrored closet didn't have door handles to open the doors. Room was very small. Hot water took forever to come on. 3. Parking is very limited. Most of the parking is in front of the building which is very inconvenient considering you cannot enter the hotel in the front of the building. You have to enter the side or back of the building.4. Room internet was very slow.5. Only one working ice machine in the hotel and they could not tell me exactly where it was.Cons - Location:1. Scary neighborhood. Enough so that they have the parking lot gated off but apparently not scary enough that they ever lowered the gates! Makes you feel really safe.2. Difficult to get to if you are not familiar with the area. It is a "You can see it but cannot get there from here," situation. It is located on a one-way access road that runs beside the highway. You need to exit the highway to the north of the hotel to get there or circle around on a different road to hit the access road.It might be a better hotel when all of the construction is complete, but I was in a new room that still had lots of problems.  No matter how much construction they do, it will not change the neighborhood. Hopefully their attitude toward their guests safety will change.I am a loyal Marriott member and I wont be back to your hotel. Sorry...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r119042763-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119042763</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Adequate as Airport Hotels go</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel numerous times over the last few years normally on business. It is always clean and friendly and the staff are great.A few points of note, maybe cost savings over the last 12 months which includes the bottle of water not being in the room any more and scaled back breakfast buffet both other than that all facilities do the job.Rooms are maybe getting a little tired but the beds are large and comfortable and the A/C works.Fine for 1-2 nights, other than that, make sure you have a car!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded January 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel numerous times over the last few years normally on business. It is always clean and friendly and the staff are great.A few points of note, maybe cost savings over the last 12 months which includes the bottle of water not being in the room any more and scaled back breakfast buffet both other than that all facilities do the job.Rooms are maybe getting a little tired but the beds are large and comfortable and the A/C works.Fine for 1-2 nights, other than that, make sure you have a car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r118923601-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118923601</t>
+  </si>
+  <si>
+    <t>10/04/2011</t>
+  </si>
+  <si>
+    <t>Roach motel</t>
+  </si>
+  <si>
+    <t>The place is old, outdated, smells like feet, the fire alarm lights are covered with either corn pads or bandaids and this morning I noticed there was still standing water in the shower from my husbands shower last night. I think this is the worst hotel I've ever stay at, and I've stayed at many hotels. Think about this seriously. Ugh!! Shame Marriott!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The place is old, outdated, smells like feet, the fire alarm lights are covered with either corn pads or bandaids and this morning I noticed there was still standing water in the shower from my husbands shower last night. I think this is the worst hotel I've ever stay at, and I've stayed at many hotels. Think about this seriously. Ugh!! Shame Marriott!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r118653224-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118653224</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We flew in to Hou and were promptly picked up by the courtesy shuttle. Our room was clean and neat. We had the breakfast buffet which included potatoes, scrambled eggs, Belgian waffles, bacon, sausage, breads, cereal and more! All the staff were pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>We flew in to Hou and were promptly picked up by the courtesy shuttle. Our room was clean and neat. We had the breakfast buffet which included potatoes, scrambled eggs, Belgian waffles, bacon, sausage, breads, cereal and more! All the staff were pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r112095620-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>112095620</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>Wonderful staff and clean facility</t>
+  </si>
+  <si>
+    <t>I stay at Courtyard Hobby several times a year, and find this hotel has a friendly staff (possibly one exception), clean room, and makes me feel right a home.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUHBCourtyardGM, General Manager at Courtyard by Marriott Houston Hobby Airport, responded to this reviewResponded July 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2011</t>
+  </si>
+  <si>
+    <t>I stay at Courtyard Hobby several times a year, and find this hotel has a friendly staff (possibly one exception), clean room, and makes me feel right a home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r108949419-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>108949419</t>
+  </si>
+  <si>
+    <t>05/19/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I don't know if I got lucked out with a newly renovated room, or if the bad reviews were a case of bad luck, but my stay was quite nice.  My room was very clean decorated with modern furniture and a flat screen tv.  Noise level wasn't a problem either so I was able to get a good night sleep.  Parking lot is spacious and free.  The only knock is the location.  It's right off the freeway on a one way road so it's kind of difficult going in and out.  There is a back road but it's kind of hard to find.  Overall nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I don't know if I got lucked out with a newly renovated room, or if the bad reviews were a case of bad luck, but my stay was quite nice.  My room was very clean decorated with modern furniture and a flat screen tv.  Noise level wasn't a problem either so I was able to get a good night sleep.  Parking lot is spacious and free.  The only knock is the location.  It's right off the freeway on a one way road so it's kind of difficult going in and out.  There is a back road but it's kind of hard to find.  Overall nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r94859357-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94859357</t>
+  </si>
+  <si>
+    <t>01/29/2011</t>
+  </si>
+  <si>
+    <t>Needs a facelift....badly</t>
+  </si>
+  <si>
+    <t>Really outdated.  Wall paper is coming off the walls, furniture is chipped, various strange odors (including natural gas), plus the toilet in my room wouldn't flush.  No counter space in the bathroom. Really handy to Hobby airport and it was quiet, which provided for a good sleep.  Breakfast was the exact same thing served for free at Fairfields, but we had to pay $10.95 for it.  No wireless in the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Really outdated.  Wall paper is coming off the walls, furniture is chipped, various strange odors (including natural gas), plus the toilet in my room wouldn't flush.  No counter space in the bathroom. Really handy to Hobby airport and it was quiet, which provided for a good sleep.  Breakfast was the exact same thing served for free at Fairfields, but we had to pay $10.95 for it.  No wireless in the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r71414874-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71414874</t>
+  </si>
+  <si>
+    <t>07/18/2010</t>
+  </si>
+  <si>
+    <t>TERRIBLE customer service</t>
+  </si>
+  <si>
+    <t>Delayed due to weather at airport- was given a voucher to stay at this hotel- decided to forgo the voucher and make a reservation- why?  yes why bother- the reservation was for 5- was given 2 double beds- no roll away- the front staff was rude and could care less that we couldnt  all sleep on the beds- paid 200 to sleep on the floor so my family could sleep- this is the worse service ever- will never stay at a Mariott again!  oh and by the way- the people who came with a voucher were turned away!  lucky them- they got to go somewhere nice!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r69002778-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>69002778</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>Just one word: Bedbuga!!</t>
+  </si>
+  <si>
+    <t>Was stranded by flight delays in Houston overnight. Stayed here because it was close, and airlines said our voucher would be good for any airport hotel. They were the only ones still with vacancy so we went there.. First, they would not honor the airline coupon (we'll take that up with American Air). Charged over $200 rack rate for a regular room. At this point, it's almost midnight with three tired cranky kids in tow, so I said screw it and decided to stay there,Woke up in the morning to find budbug crawling in my niece's hair. I bagged it and took it to the manager as proof. They were not very apologetic, and only gave us a discount instead of refund. Demand full refund or give them a bad review - they didn't care, said it was 'policy.' So here it is. Marriott sucks, they are unsanitary &amp; unsympathetic, And from here on out, our 'policy' would be to boycott any Marriott branded hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Was stranded by flight delays in Houston overnight. Stayed here because it was close, and airlines said our voucher would be good for any airport hotel. They were the only ones still with vacancy so we went there.. First, they would not honor the airline coupon (we'll take that up with American Air). Charged over $200 rack rate for a regular room. At this point, it's almost midnight with three tired cranky kids in tow, so I said screw it and decided to stay there,Woke up in the morning to find budbug crawling in my niece's hair. I bagged it and took it to the manager as proof. They were not very apologetic, and only gave us a discount instead of refund. Demand full refund or give them a bad review - they didn't care, said it was 'policy.' So here it is. Marriott sucks, they are unsanitary &amp; unsympathetic, And from here on out, our 'policy' would be to boycott any Marriott branded hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r60129615-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60129615</t>
+  </si>
+  <si>
+    <t>04/01/2010</t>
+  </si>
+  <si>
+    <t>Last Minute Priceline bargain- good value</t>
+  </si>
+  <si>
+    <t>Despite my best efforts, work conspired to make me miss my flight home from Hobby and I was stuck until the next morning w/o a room or rental car (already returned it). I used the courtesy phone at Hobby to shop around- yikes: anywhere from $110 to $150 was the range, plus a cab- this was going to be a costly night...until I remembered the Priceline app I had downloaded for my I-Phone.At $50 a night- booked via Priceline at 6pm that night, I was quite pleased with this hotel. It's listed as 3-stars and that's fair. I didn't eat, or use internet or  watch TV- so I can't review that. The shuttle saved me cab fare. The folks were pleasant and the room was clean and comfy. Not much in the immediate area to walk to.If you can get this hotel for $50 a night, I'd recommend it if has what you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Despite my best efforts, work conspired to make me miss my flight home from Hobby and I was stuck until the next morning w/o a room or rental car (already returned it). I used the courtesy phone at Hobby to shop around- yikes: anywhere from $110 to $150 was the range, plus a cab- this was going to be a costly night...until I remembered the Priceline app I had downloaded for my I-Phone.At $50 a night- booked via Priceline at 6pm that night, I was quite pleased with this hotel. It's listed as 3-stars and that's fair. I didn't eat, or use internet or  watch TV- so I can't review that. The shuttle saved me cab fare. The folks were pleasant and the room was clean and comfy. Not much in the immediate area to walk to.If you can get this hotel for $50 a night, I'd recommend it if has what you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r55709290-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>55709290</t>
+  </si>
+  <si>
+    <t>02/11/2010</t>
+  </si>
+  <si>
+    <t>Dirty!</t>
+  </si>
+  <si>
+    <t>I checked into this hotel, and it was filthy. My room looked as if it hadn't had a good vacuum cleaning in months. I almost called the maids to borrow  the vacuum. The window sill was covered in dirt, and I finally decided to check out an hour later when I found three bugs in the room. Two in the bed, one on the chair.  The lady at the front desk was lovely and very nice, that was the only positive thing that I could say..</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r54621182-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54621182</t>
+  </si>
+  <si>
+    <t>01/28/2010</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>We stayed only one night in Jan.  We were delighted with the receptionist. She helped us get a ride to a place to eat. She helped us get a cheap taxi ride to Galveston for our cruise the next morning.  They were timely in picking us up at a restaurant.  The breakfast area was cleaned and well maintained.  The lady there waited on us like we were family. Yes , we will stay there there again.The area around the hotel is not the best though.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r21855857-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21855857</t>
+  </si>
+  <si>
+    <t>11/14/2008</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>I decided to stay at this property after I stayed at the Marriott Courtyard next door on a previous visit.  I'm glad I decided to try something different because I had a nice 4 day stay at this property.  The room was nice, not the largest but nice.  It was always clean and smelled fresh.  I visited the free business center and everything was in working order.  The 24 hour pool and fitness center was a nice touch.  I had a chance to visit the hot tub late one night and that offered a peaceful moment before bed.Parking is free, wireless internet access &amp; unlimited long distance is about $12.00 a day.  I didn't visit any of the onsite restaurants or bars so I cannot comment, but there are several fast food restaurants in the vicinity.  Less than 5 minutes from Houston Hobby Airport.  I will defintiely stay here on a return visit to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I decided to stay at this property after I stayed at the Marriott Courtyard next door on a previous visit.  I'm glad I decided to try something different because I had a nice 4 day stay at this property.  The room was nice, not the largest but nice.  It was always clean and smelled fresh.  I visited the free business center and everything was in working order.  The 24 hour pool and fitness center was a nice touch.  I had a chance to visit the hot tub late one night and that offered a peaceful moment before bed.Parking is free, wireless internet access &amp; unlimited long distance is about $12.00 a day.  I didn't visit any of the onsite restaurants or bars so I cannot comment, but there are several fast food restaurants in the vicinity.  Less than 5 minutes from Houston Hobby Airport.  I will defintiely stay here on a return visit to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r18966306-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18966306</t>
+  </si>
+  <si>
+    <t>08/14/2008</t>
+  </si>
+  <si>
+    <t>Are you kidding! Little Roaches!</t>
+  </si>
+  <si>
+    <t>Are you kidding! The lobby is nice looking, the rooms are remolded but NOT a true Marriot.  Don't get me wrong, the front desk was so sorry about the roaches crawling on my room wall and the a/c did not go under 73 degrees.   I hate to complain but there was a looked like dried boogies on the decor pillow.  We called the front desk and just said there was something on the pillows and could we have the sheets changed.  We truly was nice to them and the housekeeping lady was rude to us.  Then about 9:30 pm with the lights on the roaches went up the wall.  We ask for a different room plus the a/c was not getting cold.  The other room had no critters but the next morning we found an empty fast food carton behind the chair, and I didnt have fast food.I'm sorry to give this sad report but I can't allow others not to see the truth about this hotel. My husband did call the district manager and told him their house keeping needs alot of improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Are you kidding! The lobby is nice looking, the rooms are remolded but NOT a true Marriot.  Don't get me wrong, the front desk was so sorry about the roaches crawling on my room wall and the a/c did not go under 73 degrees.   I hate to complain but there was a looked like dried boogies on the decor pillow.  We called the front desk and just said there was something on the pillows and could we have the sheets changed.  We truly was nice to them and the housekeeping lady was rude to us.  Then about 9:30 pm with the lights on the roaches went up the wall.  We ask for a different room plus the a/c was not getting cold.  The other room had no critters but the next morning we found an empty fast food carton behind the chair, and I didnt have fast food.I'm sorry to give this sad report but I can't allow others not to see the truth about this hotel. My husband did call the district manager and told him their house keeping needs alot of improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r15881106-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15881106</t>
+  </si>
+  <si>
+    <t>05/10/2008</t>
+  </si>
+  <si>
+    <t>Good Choice for location to Hobby Airport</t>
+  </si>
+  <si>
+    <t>Stayed here one night on May 2008. Room rate was $52 after bidding on PriceLine.Good bedding and linens. High end toiletries. Clean. Friendly Staff in all departments. Business Center only had one computer.  Location is close to Hobby Airport and IH-45. But beware of neighborhood. Most businesses have security guards on site, some of which are armed.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r15372716-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15372716</t>
+  </si>
+  <si>
+    <t>04/26/2008</t>
+  </si>
+  <si>
+    <t>Some staff are great, housekeeping is so/so</t>
+  </si>
+  <si>
+    <t>There are 4 hotels right together: Marriott, Courtyard, Drury and Spring Hill.  Drury was sold out, so I booked here since my meeting was very close.  Front desk staff, bellman/shuttle drivers, and especially the employee who runs the p.m. Concierge Lounge are fantastic! Room was comfortable and well designed.  My concerns (addressed by manager): Housekeeping.  I stayed here for 3 nights. Wasn't done by 3:30 the next day. Also, they didn't restock adequately.  Had to ask for toilet paper. They didn't restock all towels needed two large ones and didn't have them) and large bottle of bottled water. Sundries shop didn't have toothpaste! They sent me up one sample packet.  I had to ask for 4 more.  Food service: Hit and miss.  Great huevos rancheros w/salsa verde. Lunch buffet was just "OK."  I would go elsewhere if possible, but not lots of choices of you don't have a car.  If I had to stay in this area again, I would stay here or at Drury, but it doesn't always represent Marriott well, although they have some great people.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>There are 4 hotels right together: Marriott, Courtyard, Drury and Spring Hill.  Drury was sold out, so I booked here since my meeting was very close.  Front desk staff, bellman/shuttle drivers, and especially the employee who runs the p.m. Concierge Lounge are fantastic! Room was comfortable and well designed.  My concerns (addressed by manager): Housekeeping.  I stayed here for 3 nights. Wasn't done by 3:30 the next day. Also, they didn't restock adequately.  Had to ask for toilet paper. They didn't restock all towels needed two large ones and didn't have them) and large bottle of bottled water. Sundries shop didn't have toothpaste! They sent me up one sample packet.  I had to ask for 4 more.  Food service: Hit and miss.  Great huevos rancheros w/salsa verde. Lunch buffet was just "OK."  I would go elsewhere if possible, but not lots of choices of you don't have a car.  If I had to stay in this area again, I would stay here or at Drury, but it doesn't always represent Marriott well, although they have some great people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r13692086-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13692086</t>
+  </si>
+  <si>
+    <t>02/19/2008</t>
+  </si>
+  <si>
+    <t>Great stay at the Houston Marriott Hobby Airport</t>
+  </si>
+  <si>
+    <t>My flight got canceled and at the last minute I needed a hotel near Houston's Hobby airport.  I found room at the nearby Marriott and called for their shuttle inside the airport.  The van quickly arrived and check in was a breeze.  I must have gotten the last room because after me the hotel was full.  The room was wonderful.  I looked out on I-45 and never heard a sound.  The beds were very comfortable and lots of pillows.  The room had a nice LG flat screen. All the staff in the hotel were very helpful and friendly.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r10968391-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10968391</t>
+  </si>
+  <si>
+    <t>11/21/2007</t>
+  </si>
+  <si>
+    <t>Great Service makes it a Great Hotel</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the hotel when we arrived back from a cruise out of Galveston to await a flight back home the next day.  My kids were able to hang out by the pool and hot tub that is not viewable from exterior of the hotel like most you see.  All the staff welcomed us like we had been staying with them for several days. They got involved in conversations with us versus the generic "Good Morning" or Welcome to the Courtyard"The breakfast was $9.95 for each person, but well worth it. They make eggs any way you want it and have waffles in the shape of Texas.  It is a great touch that makes this Courtyard unique.We are already starting to discuss a family cruise for 2008 and bringing more family members and will definitely stay at the Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the hotel when we arrived back from a cruise out of Galveston to await a flight back home the next day.  My kids were able to hang out by the pool and hot tub that is not viewable from exterior of the hotel like most you see.  All the staff welcomed us like we had been staying with them for several days. They got involved in conversations with us versus the generic "Good Morning" or Welcome to the Courtyard"The breakfast was $9.95 for each person, but well worth it. They make eggs any way you want it and have waffles in the shape of Texas.  It is a great touch that makes this Courtyard unique.We are already starting to discuss a family cruise for 2008 and bringing more family members and will definitely stay at the Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r8396416-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8396416</t>
+  </si>
+  <si>
+    <t>08/10/2007</t>
+  </si>
+  <si>
+    <t>Undesirable location, Not your Typical Marriott Experience</t>
+  </si>
+  <si>
+    <t>This hotel is very accessible to Hobby Airport. The staff is very nice. Okay, those are the two compliments. This is the first and only hotel I have ever encountered with a high fence around it and a room key required gate to enter the parking lot. This tipped me off that I was not in a great neighborhood. I was on the first floor and was amazed to find that my room included a motel-style sliding glass door leading to the parking lot! Not something I am used to at a Marriott property. The hotel is acceptably clean, but showing major wear. The lighting was extremely poor in the shower/toilet portion of the bathroom. Oh yeah, and there is a sign in the Lounge/TV/Business Center area that states firearms are not allowed in public areas. Comforting. When returning from dinner a few exits south of the hotel, I had to wind my way thru an unappealing industrial park to get back to the hotel. All in all, it was an uncomfortable stay in a marginal property. When returning to that area I will opt for a little longer drive and stay at the very nice Hampton Inn in Clearlake.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>This hotel is very accessible to Hobby Airport. The staff is very nice. Okay, those are the two compliments. This is the first and only hotel I have ever encountered with a high fence around it and a room key required gate to enter the parking lot. This tipped me off that I was not in a great neighborhood. I was on the first floor and was amazed to find that my room included a motel-style sliding glass door leading to the parking lot! Not something I am used to at a Marriott property. The hotel is acceptably clean, but showing major wear. The lighting was extremely poor in the shower/toilet portion of the bathroom. Oh yeah, and there is a sign in the Lounge/TV/Business Center area that states firearms are not allowed in public areas. Comforting. When returning from dinner a few exits south of the hotel, I had to wind my way thru an unappealing industrial park to get back to the hotel. All in all, it was an uncomfortable stay in a marginal property. When returning to that area I will opt for a little longer drive and stay at the very nice Hampton Inn in Clearlake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r2152921-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2152921</t>
+  </si>
+  <si>
+    <t>06/03/2004</t>
+  </si>
+  <si>
+    <t>Better When it Was Radisson</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice now. Although it is still nice, it was a much higher quality hotel when it carried the Radisson name. The staff is terribly boring, and not that helpful. Rooms are nice, but look to be on the decline. I will probably return due to its good locale, but I do miss its days as a very fine first class hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r1438561-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1438561</t>
+  </si>
+  <si>
+    <t>11/04/2003</t>
+  </si>
+  <si>
+    <t>Very Pleasant</t>
+  </si>
+  <si>
+    <t>We had a pleasant one-night stay here on a trip to see a college-age son. The room was clean, adequate in size, and comfortable. I usually do not like the less expensive hotels, but my wife suggested we try the Marriott Courtyard--pointing out it was for only one night and all we needed was a comfortable place to sleep.It met our needs as well as the nearby full-size Marriott had previously and was more comfortable than some stays we have had in the Marriott in the Medical Center.I was a little concerned that with the airport nearby the room would be noisy. It was very quiet.I'd stay there again, and probably will.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a pleasant one-night stay here on a trip to see a college-age son. The room was clean, adequate in size, and comfortable. I usually do not like the less expensive hotels, but my wife suggested we try the Marriott Courtyard--pointing out it was for only one night and all we needed was a comfortable place to sleep.It met our needs as well as the nearby full-size Marriott had previously and was more comfortable than some stays we have had in the Marriott in the Medical Center.I was a little concerned that with the airport nearby the room would be noisy. It was very quiet.I'd stay there again, and probably will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108150-r1274966-Courtyard_by_Marriott_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1274966</t>
+  </si>
+  <si>
+    <t>09/05/2003</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and friendly staff. Room was average size, but was very nicely maintained and decorated. Indoor pool and fitness center were nice and had long hours. The only negative we had was at the Damon's Grill restaraunt in the lobby. There we were ignored by the bartender and no one came out to greet us so we left after about 5-10 minutes. The regular hotel staff was excellent.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2978,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +3010,7353 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>244</v>
+      </c>
+      <c r="X29" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>265</v>
+      </c>
+      <c r="X32" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>302</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>323</v>
+      </c>
+      <c r="X41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" t="s">
+        <v>330</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>348</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>350</v>
+      </c>
+      <c r="L45" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>353</v>
+      </c>
+      <c r="J46" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>368</v>
+      </c>
+      <c r="X48" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>368</v>
+      </c>
+      <c r="X49" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>382</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s">
+        <v>387</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>382</v>
+      </c>
+      <c r="O51" t="s">
+        <v>145</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>388</v>
+      </c>
+      <c r="X51" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>391</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>392</v>
+      </c>
+      <c r="J52" t="s">
+        <v>393</v>
+      </c>
+      <c r="K52" t="s">
+        <v>394</v>
+      </c>
+      <c r="L52" t="s">
+        <v>395</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>396</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" t="s">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s">
+        <v>402</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X53" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" t="s">
+        <v>409</v>
+      </c>
+      <c r="K54" t="s">
+        <v>410</v>
+      </c>
+      <c r="L54" t="s">
+        <v>411</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>412</v>
+      </c>
+      <c r="X54" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>416</v>
+      </c>
+      <c r="J55" t="s">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s">
+        <v>419</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>396</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>423</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>424</v>
+      </c>
+      <c r="J56" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s">
+        <v>426</v>
+      </c>
+      <c r="L56" t="s">
+        <v>427</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>428</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>439</v>
+      </c>
+      <c r="J58" t="s">
+        <v>440</v>
+      </c>
+      <c r="K58" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s">
+        <v>442</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>434</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>444</v>
+      </c>
+      <c r="J59" t="s">
+        <v>445</v>
+      </c>
+      <c r="K59" t="s">
+        <v>446</v>
+      </c>
+      <c r="L59" t="s">
+        <v>447</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>448</v>
+      </c>
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>454</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>463</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>464</v>
+      </c>
+      <c r="X61" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>467</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>468</v>
+      </c>
+      <c r="J62" t="s">
+        <v>469</v>
+      </c>
+      <c r="K62" t="s">
+        <v>470</v>
+      </c>
+      <c r="L62" t="s">
+        <v>471</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>472</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>473</v>
+      </c>
+      <c r="X62" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>476</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>477</v>
+      </c>
+      <c r="J63" t="s">
+        <v>478</v>
+      </c>
+      <c r="K63" t="s">
+        <v>479</v>
+      </c>
+      <c r="L63" t="s">
+        <v>480</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>472</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>473</v>
+      </c>
+      <c r="X63" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s">
+        <v>486</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>473</v>
+      </c>
+      <c r="X64" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>494</v>
+      </c>
+      <c r="X65" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J67" t="s">
+        <v>505</v>
+      </c>
+      <c r="K67" t="s">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s">
+        <v>507</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>508</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>509</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>510</v>
+      </c>
+      <c r="J68" t="s">
+        <v>511</v>
+      </c>
+      <c r="K68" t="s">
+        <v>512</v>
+      </c>
+      <c r="L68" t="s">
+        <v>513</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>514</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" t="s">
+        <v>516</v>
+      </c>
+      <c r="K69" t="s">
+        <v>517</v>
+      </c>
+      <c r="L69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>519</v>
+      </c>
+      <c r="X69" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>527</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>528</v>
+      </c>
+      <c r="J71" t="s">
+        <v>529</v>
+      </c>
+      <c r="K71" t="s">
+        <v>530</v>
+      </c>
+      <c r="L71" t="s">
+        <v>531</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>532</v>
+      </c>
+      <c r="O71" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>539</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>540</v>
+      </c>
+      <c r="X72" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>545</v>
+      </c>
+      <c r="K73" t="s">
+        <v>546</v>
+      </c>
+      <c r="L73" t="s">
+        <v>547</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>532</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>548</v>
+      </c>
+      <c r="X73" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>551</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>552</v>
+      </c>
+      <c r="J74" t="s">
+        <v>553</v>
+      </c>
+      <c r="K74" t="s">
+        <v>554</v>
+      </c>
+      <c r="L74" t="s">
+        <v>555</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>556</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" t="s">
+        <v>559</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>539</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>560</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>561</v>
+      </c>
+      <c r="J76" t="s">
+        <v>562</v>
+      </c>
+      <c r="K76" t="s">
+        <v>563</v>
+      </c>
+      <c r="L76" t="s">
+        <v>564</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>539</v>
+      </c>
+      <c r="O76" t="s">
+        <v>145</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>565</v>
+      </c>
+      <c r="X76" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>568</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>569</v>
+      </c>
+      <c r="J77" t="s">
+        <v>570</v>
+      </c>
+      <c r="K77" t="s">
+        <v>571</v>
+      </c>
+      <c r="L77" t="s">
+        <v>572</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>573</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>574</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>575</v>
+      </c>
+      <c r="J78" t="s">
+        <v>576</v>
+      </c>
+      <c r="K78" t="s">
+        <v>577</v>
+      </c>
+      <c r="L78" t="s">
+        <v>578</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>579</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>580</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>581</v>
+      </c>
+      <c r="J79" t="s">
+        <v>582</v>
+      </c>
+      <c r="K79" t="s">
+        <v>583</v>
+      </c>
+      <c r="L79" t="s">
+        <v>584</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>585</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>586</v>
+      </c>
+      <c r="X79" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>589</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>590</v>
+      </c>
+      <c r="J80" t="s">
+        <v>591</v>
+      </c>
+      <c r="K80" t="s">
+        <v>592</v>
+      </c>
+      <c r="L80" t="s">
+        <v>593</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>594</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>595</v>
+      </c>
+      <c r="X80" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>599</v>
+      </c>
+      <c r="J81" t="s">
+        <v>600</v>
+      </c>
+      <c r="K81" t="s">
+        <v>601</v>
+      </c>
+      <c r="L81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>603</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>604</v>
+      </c>
+      <c r="X81" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>607</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>608</v>
+      </c>
+      <c r="J82" t="s">
+        <v>609</v>
+      </c>
+      <c r="K82" t="s">
+        <v>610</v>
+      </c>
+      <c r="L82" t="s">
+        <v>611</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>603</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>612</v>
+      </c>
+      <c r="X82" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>615</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>616</v>
+      </c>
+      <c r="J83" t="s">
+        <v>617</v>
+      </c>
+      <c r="K83" t="s">
+        <v>618</v>
+      </c>
+      <c r="L83" t="s">
+        <v>619</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>620</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>612</v>
+      </c>
+      <c r="X83" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>622</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>623</v>
+      </c>
+      <c r="J84" t="s">
+        <v>624</v>
+      </c>
+      <c r="K84" t="s">
+        <v>625</v>
+      </c>
+      <c r="L84" t="s">
+        <v>626</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>627</v>
+      </c>
+      <c r="O84" t="s">
+        <v>145</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>628</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>629</v>
+      </c>
+      <c r="J85" t="s">
+        <v>630</v>
+      </c>
+      <c r="K85" t="s">
+        <v>631</v>
+      </c>
+      <c r="L85" t="s">
+        <v>632</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>627</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>633</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>634</v>
+      </c>
+      <c r="J86" t="s">
+        <v>635</v>
+      </c>
+      <c r="K86" t="s">
+        <v>636</v>
+      </c>
+      <c r="L86" t="s">
+        <v>637</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>638</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>639</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>640</v>
+      </c>
+      <c r="J87" t="s">
+        <v>641</v>
+      </c>
+      <c r="K87" t="s">
+        <v>642</v>
+      </c>
+      <c r="L87" t="s">
+        <v>643</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>644</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>645</v>
+      </c>
+      <c r="J88" t="s">
+        <v>641</v>
+      </c>
+      <c r="K88" t="s">
+        <v>646</v>
+      </c>
+      <c r="L88" t="s">
+        <v>647</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>648</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>650</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>651</v>
+      </c>
+      <c r="J89" t="s">
+        <v>652</v>
+      </c>
+      <c r="K89" t="s">
+        <v>653</v>
+      </c>
+      <c r="L89" t="s">
+        <v>654</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>655</v>
+      </c>
+      <c r="O89" t="s">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>656</v>
+      </c>
+      <c r="X89" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>659</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>660</v>
+      </c>
+      <c r="J90" t="s">
+        <v>661</v>
+      </c>
+      <c r="K90" t="s">
+        <v>662</v>
+      </c>
+      <c r="L90" t="s">
+        <v>663</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>664</v>
+      </c>
+      <c r="O90" t="s">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>665</v>
+      </c>
+      <c r="X90" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>668</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>669</v>
+      </c>
+      <c r="J91" t="s">
+        <v>670</v>
+      </c>
+      <c r="K91" t="s">
+        <v>671</v>
+      </c>
+      <c r="L91" t="s">
+        <v>672</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>673</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>665</v>
+      </c>
+      <c r="X91" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>675</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>676</v>
+      </c>
+      <c r="J92" t="s">
+        <v>677</v>
+      </c>
+      <c r="K92" t="s">
+        <v>678</v>
+      </c>
+      <c r="L92" t="s">
+        <v>679</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>673</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>665</v>
+      </c>
+      <c r="X92" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>681</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>682</v>
+      </c>
+      <c r="J93" t="s">
+        <v>683</v>
+      </c>
+      <c r="K93" t="s">
+        <v>684</v>
+      </c>
+      <c r="L93" t="s">
+        <v>685</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>686</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>665</v>
+      </c>
+      <c r="X93" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>688</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>689</v>
+      </c>
+      <c r="J94" t="s">
+        <v>690</v>
+      </c>
+      <c r="K94" t="s">
+        <v>691</v>
+      </c>
+      <c r="L94" t="s">
+        <v>692</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>693</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>694</v>
+      </c>
+      <c r="X94" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>697</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>698</v>
+      </c>
+      <c r="J95" t="s">
+        <v>699</v>
+      </c>
+      <c r="K95" t="s">
+        <v>700</v>
+      </c>
+      <c r="L95" t="s">
+        <v>701</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>702</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>703</v>
+      </c>
+      <c r="X95" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>706</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>707</v>
+      </c>
+      <c r="J96" t="s">
+        <v>708</v>
+      </c>
+      <c r="K96" t="s">
+        <v>709</v>
+      </c>
+      <c r="L96" t="s">
+        <v>710</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>703</v>
+      </c>
+      <c r="X96" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>712</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>713</v>
+      </c>
+      <c r="J97" t="s">
+        <v>714</v>
+      </c>
+      <c r="K97" t="s">
+        <v>715</v>
+      </c>
+      <c r="L97" t="s">
+        <v>716</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>703</v>
+      </c>
+      <c r="X97" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>718</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>719</v>
+      </c>
+      <c r="J98" t="s">
+        <v>720</v>
+      </c>
+      <c r="K98" t="s">
+        <v>721</v>
+      </c>
+      <c r="L98" t="s">
+        <v>722</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>655</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>723</v>
+      </c>
+      <c r="X98" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>726</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>727</v>
+      </c>
+      <c r="J99" t="s">
+        <v>728</v>
+      </c>
+      <c r="K99" t="s">
+        <v>729</v>
+      </c>
+      <c r="L99" t="s">
+        <v>730</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>731</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>723</v>
+      </c>
+      <c r="X99" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>733</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>734</v>
+      </c>
+      <c r="J100" t="s">
+        <v>735</v>
+      </c>
+      <c r="K100" t="s">
+        <v>736</v>
+      </c>
+      <c r="L100" t="s">
+        <v>737</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>738</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>723</v>
+      </c>
+      <c r="X100" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>740</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>741</v>
+      </c>
+      <c r="J101" t="s">
+        <v>742</v>
+      </c>
+      <c r="K101" t="s">
+        <v>743</v>
+      </c>
+      <c r="L101" t="s">
+        <v>744</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>745</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>746</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>747</v>
+      </c>
+      <c r="J102" t="s">
+        <v>748</v>
+      </c>
+      <c r="K102" t="s">
+        <v>749</v>
+      </c>
+      <c r="L102" t="s">
+        <v>750</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>751</v>
+      </c>
+      <c r="O102" t="s">
+        <v>70</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>753</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>754</v>
+      </c>
+      <c r="J103" t="s">
+        <v>755</v>
+      </c>
+      <c r="K103" t="s">
+        <v>756</v>
+      </c>
+      <c r="L103" t="s">
+        <v>757</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>758</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>760</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>761</v>
+      </c>
+      <c r="J104" t="s">
+        <v>762</v>
+      </c>
+      <c r="K104" t="s">
+        <v>763</v>
+      </c>
+      <c r="L104" t="s">
+        <v>764</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>765</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>766</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>767</v>
+      </c>
+      <c r="J105" t="s">
+        <v>768</v>
+      </c>
+      <c r="K105" t="s">
+        <v>769</v>
+      </c>
+      <c r="L105" t="s">
+        <v>770</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>771</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>772</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>773</v>
+      </c>
+      <c r="J106" t="s">
+        <v>774</v>
+      </c>
+      <c r="K106" t="s">
+        <v>775</v>
+      </c>
+      <c r="L106" t="s">
+        <v>776</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>777</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>779</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>780</v>
+      </c>
+      <c r="J107" t="s">
+        <v>781</v>
+      </c>
+      <c r="K107" t="s">
+        <v>782</v>
+      </c>
+      <c r="L107" t="s">
+        <v>783</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>784</v>
+      </c>
+      <c r="O107" t="s">
+        <v>70</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>786</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>787</v>
+      </c>
+      <c r="J108" t="s">
+        <v>788</v>
+      </c>
+      <c r="K108" t="s">
+        <v>789</v>
+      </c>
+      <c r="L108" t="s">
+        <v>790</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>791</v>
+      </c>
+      <c r="O108" t="s">
+        <v>145</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>792</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>793</v>
+      </c>
+      <c r="J109" t="s">
+        <v>794</v>
+      </c>
+      <c r="K109" t="s">
+        <v>795</v>
+      </c>
+      <c r="L109" t="s">
+        <v>796</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>797</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>799</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>800</v>
+      </c>
+      <c r="J110" t="s">
+        <v>801</v>
+      </c>
+      <c r="K110" t="s">
+        <v>802</v>
+      </c>
+      <c r="L110" t="s">
+        <v>803</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>804</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>805</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>806</v>
+      </c>
+      <c r="J111" t="s">
+        <v>807</v>
+      </c>
+      <c r="K111" t="s">
+        <v>808</v>
+      </c>
+      <c r="L111" t="s">
+        <v>809</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>810</v>
+      </c>
+      <c r="O111" t="s">
+        <v>70</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>812</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>813</v>
+      </c>
+      <c r="J112" t="s">
+        <v>814</v>
+      </c>
+      <c r="K112" t="s">
+        <v>815</v>
+      </c>
+      <c r="L112" t="s">
+        <v>816</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>817</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>819</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>820</v>
+      </c>
+      <c r="J113" t="s">
+        <v>821</v>
+      </c>
+      <c r="K113" t="s">
+        <v>822</v>
+      </c>
+      <c r="L113" t="s">
+        <v>823</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>824</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>825</v>
+      </c>
+      <c r="J114" t="s">
+        <v>826</v>
+      </c>
+      <c r="K114" t="s">
+        <v>827</v>
+      </c>
+      <c r="L114" t="s">
+        <v>828</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>32920</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>830</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>831</v>
+      </c>
+      <c r="J115" t="s">
+        <v>832</v>
+      </c>
+      <c r="K115" t="s">
+        <v>833</v>
+      </c>
+      <c r="L115" t="s">
+        <v>834</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
